--- a/log/clustering_log/clustering1/clustering1 sumary.xlsx
+++ b/log/clustering_log/clustering1/clustering1 sumary.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6比4" sheetId="1" r:id="rId1"/>
     <sheet name="7比3" sheetId="2" r:id="rId2"/>
     <sheet name="8比2" sheetId="3" r:id="rId3"/>
     <sheet name="9比1" sheetId="4" r:id="rId4"/>
+    <sheet name="總比較" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
   <si>
     <t>mean</t>
   </si>
@@ -57,14 +61,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Adjusted Mutual Information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adjusted Rand index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Homogeneity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,12 +68,42 @@
     <t>Completeness</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>AMI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6:4-0.6</t>
+  </si>
+  <si>
+    <t>7:3-0.6</t>
+  </si>
+  <si>
+    <t>8:2-0.55</t>
+  </si>
+  <si>
+    <t>8:2-0.6</t>
+  </si>
+  <si>
+    <t>9:1-0.55</t>
+  </si>
+  <si>
+    <t>test finished in 35152.17 seconds</t>
+  </si>
+  <si>
+    <t>誤差線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -98,6 +124,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -124,11 +158,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -273,10 +310,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -345,10 +382,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -417,10 +454,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -489,10 +526,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -561,10 +598,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -635,10 +672,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -709,10 +746,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -783,10 +820,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,8 +863,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-320648128"/>
-        <c:axId val="-320648672"/>
+        <c:axId val="1643405488"/>
+        <c:axId val="1643406032"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -900,10 +937,10 @@
                         <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Adjusted Mutual Information</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Adjusted Rand index</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -929,7 +966,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-320648128"/>
+        <c:axId val="1643405488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +1009,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320648672"/>
+        <c:crossAx val="1643406032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -980,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-320648672"/>
+        <c:axId val="1643406032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1088,7 +1125,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320648128"/>
+        <c:crossAx val="1643405488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1294,10 +1331,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1366,10 +1403,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1438,10 +1475,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1510,10 +1547,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1582,10 +1619,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1656,10 +1693,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1730,10 +1767,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1804,10 +1841,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1847,8 +1884,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-320650848"/>
-        <c:axId val="-320649216"/>
+        <c:axId val="1643403312"/>
+        <c:axId val="1643412016"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1921,10 +1958,10 @@
                         <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Adjusted Mutual Information</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Adjusted Rand index</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -1950,7 +1987,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-320650848"/>
+        <c:axId val="1643403312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,7 +2030,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320649216"/>
+        <c:crossAx val="1643412016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2001,7 +2038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-320649216"/>
+        <c:axId val="1643412016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2109,7 +2146,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320650848"/>
+        <c:crossAx val="1643403312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2315,10 +2352,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2387,10 +2424,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2459,10 +2496,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2531,10 +2568,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2603,10 +2640,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2677,10 +2714,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2751,10 +2788,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,10 +2862,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2868,8 +2905,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-320646496"/>
-        <c:axId val="-320645952"/>
+        <c:axId val="1643401680"/>
+        <c:axId val="1643404400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2942,10 +2979,10 @@
                         <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Adjusted Mutual Information</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Adjusted Rand index</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -2971,7 +3008,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-320646496"/>
+        <c:axId val="1643401680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3051,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320645952"/>
+        <c:crossAx val="1643404400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3022,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-320645952"/>
+        <c:axId val="1643404400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3130,7 +3167,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-320646496"/>
+        <c:crossAx val="1643401680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,10 +3373,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3408,10 +3445,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3480,10 +3517,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3552,10 +3589,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3624,10 +3661,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3698,10 +3735,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3772,10 +3809,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3846,10 +3883,10 @@
                   <c:v>V-measure</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Adjusted Mutual Information</c:v>
+                  <c:v>AMI</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Adjusted Rand index</c:v>
+                  <c:v>ARI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3889,8 +3926,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-318683584"/>
-        <c:axId val="-318685760"/>
+        <c:axId val="1643409296"/>
+        <c:axId val="1643407120"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3963,10 +4000,10 @@
                         <c:v>V-measure</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>Adjusted Mutual Information</c:v>
+                        <c:v>AMI</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>Adjusted Rand index</c:v>
+                        <c:v>ARI</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -3992,7 +4029,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-318683584"/>
+        <c:axId val="1643409296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4035,7 +4072,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-318685760"/>
+        <c:crossAx val="1643407120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4043,7 +4080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-318685760"/>
+        <c:axId val="1643407120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4151,7 +4188,1108 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-318683584"/>
+        <c:crossAx val="1643409296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>algorithm1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> 各參數比較</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6:4-0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$B$28:$F$28</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$B$29:$F$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9999999999998979E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.9999999999999942E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7:3-0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$B$30:$F$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$B$31:$F$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.999999999999996E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8:2-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$B$32:$F$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$B$33:$F$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.9999999999999978E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8:2-0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$B$34:$F$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$B$35:$F$35</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.999999999999996E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9:1-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$B$36:$F$36</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9999999999998979E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$B$37:$F$37</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="88323344"/>
+        <c:axId val="88323888"/>
+        <c:extLst/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="88323344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88323888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="88323888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88323344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4392,6 +5530,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5902,6 +7080,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6548,6 +8229,349 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ratio sampling=True times=25"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>completeness</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>homogeneity</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>v_measure</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>mutual_info</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>rand</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>mean</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>6:4-0.6</v>
+          </cell>
+          <cell r="B3">
+            <v>0.89</v>
+          </cell>
+          <cell r="C3">
+            <v>0.94</v>
+          </cell>
+          <cell r="D3">
+            <v>0.91</v>
+          </cell>
+          <cell r="E3">
+            <v>0.88</v>
+          </cell>
+          <cell r="F3">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>7:3-0.6</v>
+          </cell>
+          <cell r="B4">
+            <v>0.89</v>
+          </cell>
+          <cell r="C4">
+            <v>0.95</v>
+          </cell>
+          <cell r="D4">
+            <v>0.92</v>
+          </cell>
+          <cell r="E4">
+            <v>0.88</v>
+          </cell>
+          <cell r="F4">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>8:2-0.55</v>
+          </cell>
+          <cell r="B5">
+            <v>0.92</v>
+          </cell>
+          <cell r="C5">
+            <v>0.91</v>
+          </cell>
+          <cell r="D5">
+            <v>0.92</v>
+          </cell>
+          <cell r="E5">
+            <v>0.9</v>
+          </cell>
+          <cell r="F5">
+            <v>0.86</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>8:2-0.6</v>
+          </cell>
+          <cell r="B6">
+            <v>0.88</v>
+          </cell>
+          <cell r="C6">
+            <v>0.96</v>
+          </cell>
+          <cell r="D6">
+            <v>0.92</v>
+          </cell>
+          <cell r="E6">
+            <v>0.87</v>
+          </cell>
+          <cell r="F6">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>9:1-0.55</v>
+          </cell>
+          <cell r="B7">
+            <v>0.91</v>
+          </cell>
+          <cell r="C7">
+            <v>0.93</v>
+          </cell>
+          <cell r="D7">
+            <v>0.92</v>
+          </cell>
+          <cell r="E7">
+            <v>0.9</v>
+          </cell>
+          <cell r="F7">
+            <v>0.88</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E28">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F28">
+            <v>6.0000000000000053E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="C29">
+            <v>9.9999999999998979E-3</v>
+          </cell>
+          <cell r="D29">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E29">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F29">
+            <v>5.9999999999999942E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D30">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="E30">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F30">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="C31">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="D31">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E31">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F31">
+            <v>7.999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>1.9999999999999907E-2</v>
+          </cell>
+          <cell r="C32">
+            <v>2.9999999999999916E-2</v>
+          </cell>
+          <cell r="D32">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E32">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F32">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C33">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="D33">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E33">
+            <v>5.0000000000000044E-2</v>
+          </cell>
+          <cell r="F33">
+            <v>9.9999999999999978E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C34">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="D34">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E34">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F34">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C35">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="D35">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="E35">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+          <cell r="F35">
+            <v>7.999999999999996E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="C36">
+            <v>9.9999999999998979E-3</v>
+          </cell>
+          <cell r="D36">
+            <v>1.0000000000000009E-2</v>
+          </cell>
+          <cell r="E36">
+            <v>2.0000000000000018E-2</v>
+          </cell>
+          <cell r="F36">
+            <v>4.0000000000000036E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="C37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="D37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="E37">
+            <v>3.0000000000000027E-2</v>
+          </cell>
+          <cell r="F37">
+            <v>6.0000000000000053E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6815,27 +8839,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7516,26 +9540,26 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8215,26 +10239,26 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8914,26 +10938,26 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9599,6 +11623,688 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>0.89</v>
+      </c>
+      <c r="C3">
+        <v>0.94</v>
+      </c>
+      <c r="D3">
+        <v>0.91</v>
+      </c>
+      <c r="E3">
+        <v>0.88</v>
+      </c>
+      <c r="F3">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0.89</v>
+      </c>
+      <c r="C4">
+        <v>0.95</v>
+      </c>
+      <c r="D4">
+        <v>0.92</v>
+      </c>
+      <c r="E4">
+        <v>0.88</v>
+      </c>
+      <c r="F4">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>0.91</v>
+      </c>
+      <c r="D5">
+        <v>0.92</v>
+      </c>
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.88</v>
+      </c>
+      <c r="C6">
+        <v>0.96</v>
+      </c>
+      <c r="D6">
+        <v>0.92</v>
+      </c>
+      <c r="E6">
+        <v>0.87</v>
+      </c>
+      <c r="F6">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.91</v>
+      </c>
+      <c r="C9">
+        <v>0.96</v>
+      </c>
+      <c r="D9">
+        <v>0.93</v>
+      </c>
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.91</v>
+      </c>
+      <c r="C10">
+        <v>0.97</v>
+      </c>
+      <c r="D10">
+        <v>0.94</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.94</v>
+      </c>
+      <c r="C11">
+        <v>0.94</v>
+      </c>
+      <c r="D11">
+        <v>0.93</v>
+      </c>
+      <c r="E11">
+        <v>0.92</v>
+      </c>
+      <c r="F11">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.9</v>
+      </c>
+      <c r="C12">
+        <v>0.97</v>
+      </c>
+      <c r="D12">
+        <v>0.93</v>
+      </c>
+      <c r="E12">
+        <v>0.89</v>
+      </c>
+      <c r="F12">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>0.93</v>
+      </c>
+      <c r="C13">
+        <v>0.94</v>
+      </c>
+      <c r="D13">
+        <v>0.93</v>
+      </c>
+      <c r="E13">
+        <v>0.92</v>
+      </c>
+      <c r="F13">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.86</v>
+      </c>
+      <c r="C15">
+        <v>0.91</v>
+      </c>
+      <c r="D15">
+        <v>0.89</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.85</v>
+      </c>
+      <c r="C16">
+        <v>0.93</v>
+      </c>
+      <c r="D16">
+        <v>0.89</v>
+      </c>
+      <c r="E16">
+        <v>0.83</v>
+      </c>
+      <c r="F16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.89</v>
+      </c>
+      <c r="C17">
+        <v>0.87</v>
+      </c>
+      <c r="D17">
+        <v>0.89</v>
+      </c>
+      <c r="E17">
+        <v>0.85</v>
+      </c>
+      <c r="F17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.85</v>
+      </c>
+      <c r="C18">
+        <v>0.94</v>
+      </c>
+      <c r="D18">
+        <v>0.9</v>
+      </c>
+      <c r="E18">
+        <v>0.83</v>
+      </c>
+      <c r="F18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.88</v>
+      </c>
+      <c r="C19">
+        <v>0.9</v>
+      </c>
+      <c r="D19">
+        <v>0.89</v>
+      </c>
+      <c r="E19">
+        <v>0.87</v>
+      </c>
+      <c r="F19">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21">
+        <v>0.01</v>
+      </c>
+      <c r="C21">
+        <v>0.01</v>
+      </c>
+      <c r="D21">
+        <v>0.01</v>
+      </c>
+      <c r="E21">
+        <v>0.02</v>
+      </c>
+      <c r="F21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22">
+        <v>0.01</v>
+      </c>
+      <c r="C22">
+        <v>0.01</v>
+      </c>
+      <c r="D22">
+        <v>0.01</v>
+      </c>
+      <c r="E22">
+        <v>0.02</v>
+      </c>
+      <c r="F22">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.02</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>0.01</v>
+      </c>
+      <c r="C24">
+        <v>0.01</v>
+      </c>
+      <c r="D24">
+        <v>0.01</v>
+      </c>
+      <c r="E24">
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>0.01</v>
+      </c>
+      <c r="C25">
+        <v>0.01</v>
+      </c>
+      <c r="D25">
+        <v>0.01</v>
+      </c>
+      <c r="E25">
+        <v>0.01</v>
+      </c>
+      <c r="F25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <f>B9-B3</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:F28" si="0">C9-C3</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B3-B16</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:F29" si="1">C3-C16</f>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B10-B4</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:F30" si="2">C10-C4</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f>B4-B16</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:F31" si="3">C4-C16</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f>B11-B5</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" ref="C32:F32" si="4">C11-C5</f>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f>B5-B17</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:F33" si="5">C5-C17</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="5"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="5"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>B12-B6</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:F34" si="6">C12-C6</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f>B6-B18</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:F35" si="7">C6-C18</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f>B13-B7</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:F36" si="8">C13-C7</f>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="8"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="8"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f>B7-B19</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="C37">
+        <f t="shared" ref="C37:F37" si="9">C7-C19</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000053E-2</v>
       </c>
     </row>
   </sheetData>

--- a/log/clustering_log/clustering1/clustering1 sumary.xlsx
+++ b/log/clustering_log/clustering1/clustering1 sumary.xlsx
@@ -5,23 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宗廷\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhongTing\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="6比4" sheetId="1" r:id="rId1"/>
+    <sheet name="6比4" sheetId="6" r:id="rId1"/>
     <sheet name="7比3" sheetId="2" r:id="rId2"/>
     <sheet name="8比2" sheetId="3" r:id="rId3"/>
     <sheet name="9比1" sheetId="4" r:id="rId4"/>
     <sheet name="總比較" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
   <si>
     <t>mean</t>
   </si>
@@ -43,18 +40,6 @@
   </si>
   <si>
     <t>std</t>
-  </si>
-  <si>
-    <t>test finished in 51667.98 seconds</t>
-  </si>
-  <si>
-    <t>test finished in 49133.94 seconds</t>
-  </si>
-  <si>
-    <t>test finished in 48632.61 seconds</t>
-  </si>
-  <si>
-    <t>test finished in 45506.08 seconds</t>
   </si>
   <si>
     <t>V-measure</t>
@@ -98,11 +83,35 @@
     <t>誤差線</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>test finished in 195200.03 seconds</t>
+  </si>
+  <si>
+    <t>test finished in 189026.76 seconds</t>
+  </si>
+  <si>
+    <t>test finished in 179188.24 seconds</t>
+  </si>
+  <si>
+    <t>test finished in 171110.95 seconds</t>
+  </si>
+  <si>
+    <t>誤差線</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -186,7 +195,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -325,16 +334,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.72</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.03</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.01</c:v>
@@ -342,6 +351,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -400,20 +414,25 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.34</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -472,7 +491,7 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.79</c:v>
@@ -486,6 +505,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -553,11 +577,16 @@
                   <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -630,6 +659,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -687,7 +721,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.97</c:v>
@@ -696,7 +730,7 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.83</c:v>
@@ -704,6 +738,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -761,7 +800,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
@@ -770,14 +809,19 @@
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -844,14 +888,19 @@
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EAA0-4875-99A4-17A71C6AC087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -960,6 +1009,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-EAA0-4875-99A4-17A71C6AC087}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -1207,7 +1261,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1346,16 +1400,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.08</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.02</c:v>
@@ -1363,6 +1417,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1421,20 +1480,25 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1493,20 +1557,25 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.76</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.75</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1565,20 +1634,25 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1651,6 +1725,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1720,11 +1799,16 @@
                   <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1788,17 +1872,22 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1865,14 +1954,19 @@
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.46</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6FBA-45F2-898E-0C3EC2516EC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1981,6 +2075,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-6FBA-45F2-898E-0C3EC2516EC3}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -2228,7 +2327,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2367,13 +2466,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.94</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.14000000000000001</c:v>
@@ -2384,6 +2483,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2439,23 +2543,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.55000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.31</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2514,20 +2623,25 @@
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2553,6 +2667,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'8比2'!$I$20:$M$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0000000000000062E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'8比2'!$I$29:$M$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.9999999999999978E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'8比2'!$B$1:$F$1</c:f>
@@ -2586,7 +2766,7 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92</c:v>
@@ -2600,6 +2780,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2625,6 +2810,72 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'8比2'!$I$21:$M$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'8比2'!$I$30:$M$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>'8比2'!$B$1:$F$1</c:f>
@@ -2655,7 +2906,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.96</c:v>
@@ -2667,11 +2918,16 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2729,23 +2985,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.89</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2803,23 +3064,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.7</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2886,7 +3152,7 @@
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.43</c:v>
@@ -2894,6 +3160,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F839-4400-B001-FED286CB278D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3002,6 +3273,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-F839-4400-B001-FED286CB278D}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -3249,7 +3525,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3391,20 +3667,25 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3472,11 +3753,16 @@
                   <c:v>0.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -3549,6 +3835,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -3604,7 +3895,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.93</c:v>
@@ -3613,7 +3904,7 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.89</c:v>
@@ -3621,6 +3912,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -3693,6 +3989,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -3759,14 +4060,19 @@
                   <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.74</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -3830,17 +4136,22 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.56999999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -3898,7 +4209,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.61</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3907,14 +4218,19 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.42</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4023,6 +4339,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C20E-41C1-804D-9DD11A87B535}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -4270,7 +4591,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4424,6 +4745,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4562,6 +4888,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4700,6 +5031,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4838,6 +5174,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4976,6 +5317,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -5114,6 +5460,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8102,8 +8453,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8266,312 +8619,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ratio sampling=True times=25"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>completeness</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>homogeneity</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>v_measure</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>mutual_info</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>rand</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>mean</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>6:4-0.6</v>
-          </cell>
-          <cell r="B3">
-            <v>0.89</v>
-          </cell>
-          <cell r="C3">
-            <v>0.94</v>
-          </cell>
-          <cell r="D3">
-            <v>0.91</v>
-          </cell>
-          <cell r="E3">
-            <v>0.88</v>
-          </cell>
-          <cell r="F3">
-            <v>0.86</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>7:3-0.6</v>
-          </cell>
-          <cell r="B4">
-            <v>0.89</v>
-          </cell>
-          <cell r="C4">
-            <v>0.95</v>
-          </cell>
-          <cell r="D4">
-            <v>0.92</v>
-          </cell>
-          <cell r="E4">
-            <v>0.88</v>
-          </cell>
-          <cell r="F4">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>8:2-0.55</v>
-          </cell>
-          <cell r="B5">
-            <v>0.92</v>
-          </cell>
-          <cell r="C5">
-            <v>0.91</v>
-          </cell>
-          <cell r="D5">
-            <v>0.92</v>
-          </cell>
-          <cell r="E5">
-            <v>0.9</v>
-          </cell>
-          <cell r="F5">
-            <v>0.86</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>8:2-0.6</v>
-          </cell>
-          <cell r="B6">
-            <v>0.88</v>
-          </cell>
-          <cell r="C6">
-            <v>0.96</v>
-          </cell>
-          <cell r="D6">
-            <v>0.92</v>
-          </cell>
-          <cell r="E6">
-            <v>0.87</v>
-          </cell>
-          <cell r="F6">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>9:1-0.55</v>
-          </cell>
-          <cell r="B7">
-            <v>0.91</v>
-          </cell>
-          <cell r="C7">
-            <v>0.93</v>
-          </cell>
-          <cell r="D7">
-            <v>0.92</v>
-          </cell>
-          <cell r="E7">
-            <v>0.9</v>
-          </cell>
-          <cell r="F7">
-            <v>0.88</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E28">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F28">
-            <v>6.0000000000000053E-2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="C29">
-            <v>9.9999999999998979E-3</v>
-          </cell>
-          <cell r="D29">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E29">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F29">
-            <v>5.9999999999999942E-2</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D30">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="E30">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F30">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="C31">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="D31">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E31">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F31">
-            <v>7.999999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>1.9999999999999907E-2</v>
-          </cell>
-          <cell r="C32">
-            <v>2.9999999999999916E-2</v>
-          </cell>
-          <cell r="D32">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E32">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F32">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C33">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="D33">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E33">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>9.9999999999999978E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C34">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="D34">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E34">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C35">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="D35">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="E35">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>7.999999999999996E-2</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="C36">
-            <v>9.9999999999998979E-3</v>
-          </cell>
-          <cell r="D36">
-            <v>1.0000000000000009E-2</v>
-          </cell>
-          <cell r="E36">
-            <v>2.0000000000000018E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="C37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="D37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="E37">
-            <v>3.0000000000000027E-2</v>
-          </cell>
-          <cell r="F37">
-            <v>6.0000000000000053E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8837,57 +8884,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+      <selection activeCell="I15" sqref="I15:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.72</v>
+        <v>0.81</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="D3">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.45</v>
       </c>
@@ -8895,19 +8942,19 @@
         <v>0.89</v>
       </c>
       <c r="C4">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="D4">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="E4">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -8915,7 +8962,7 @@
         <v>0.91</v>
       </c>
       <c r="C5">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
         <v>0.79</v>
@@ -8927,7 +8974,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.55000000000000004</v>
       </c>
@@ -8944,10 +8991,10 @@
         <v>0.85</v>
       </c>
       <c r="F6">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
@@ -8967,12 +9014,12 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
       <c r="B8">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="C8">
         <v>0.97</v>
@@ -8981,18 +9028,18 @@
         <v>0.89</v>
       </c>
       <c r="E8">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F8">
         <v>0.83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="C9">
         <v>0.99</v>
@@ -9001,13 +9048,13 @@
         <v>0.83</v>
       </c>
       <c r="E9">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="F9">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.75</v>
       </c>
@@ -9021,18 +9068,18 @@
         <v>0.76</v>
       </c>
       <c r="E10">
+        <v>0.48</v>
+      </c>
+      <c r="F10">
         <v>0.47</v>
       </c>
-      <c r="F10">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -9040,79 +9087,82 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="E12">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="F12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C13">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="D13">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E14">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="F14">
         <v>0.73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
       <c r="B15">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C15">
+        <v>0.91</v>
+      </c>
+      <c r="D15">
+        <v>0.92</v>
+      </c>
+      <c r="E15">
         <v>0.9</v>
       </c>
-      <c r="D15">
-        <v>0.91</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.89</v>
       </c>
-      <c r="F15">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.6</v>
       </c>
@@ -9126,83 +9176,166 @@
         <v>0.94</v>
       </c>
       <c r="E16">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F16">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C17">
         <v>0.98</v>
       </c>
       <c r="D17">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="E17">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="F17">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+      <c r="I17">
+        <f>ABS(B3-B12)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:M17" si="0">ABS(C3-C12)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="E18">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.86</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J24" si="2">ABS(C4-C13)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K24" si="3">ABS(D4-D13)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L24" si="4">ABS(E4-E13)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M24" si="5">ABS(F4-F13)</f>
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="E19">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="F19">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.62</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.26</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9216,139 +9349,262 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.45</v>
       </c>
       <c r="B22">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="C22">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="E22">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F22">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C23">
-        <v>0.63</v>
+        <v>0.54</v>
       </c>
       <c r="D23">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="E23">
-        <v>0.62</v>
+        <v>0.52</v>
       </c>
       <c r="F23">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C24">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="D24">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E24">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="F24">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C25">
+        <v>0.89</v>
+      </c>
+      <c r="D25">
         <v>0.88</v>
       </c>
-      <c r="D25">
-        <v>0.87</v>
-      </c>
       <c r="E25">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.65</v>
       </c>
       <c r="B26">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="C26">
         <v>0.96</v>
       </c>
       <c r="D26">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E26">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F26">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <f>ABS(B3-B21)</f>
+        <v>0.67</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M33" si="6">ABS(C3-C21)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D27">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E27">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F27">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I33" si="7">ABS(B4-B22)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.75</v>
       </c>
       <c r="B28">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="C28">
         <v>0.99</v>
       </c>
       <c r="D28">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="E28">
         <v>0.42</v>
@@ -9356,33 +9612,93 @@
       <c r="F28">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>0.12</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
       <c r="B30">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="C30">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D30">
         <v>0.08</v>
       </c>
       <c r="E30">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F30">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -9399,10 +9715,30 @@
         <v>0.1</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -9410,19 +9746,39 @@
         <v>0.02</v>
       </c>
       <c r="C32">
+        <v>0.05</v>
+      </c>
+      <c r="D32">
         <v>0.04</v>
       </c>
-      <c r="D32">
-        <v>0.03</v>
-      </c>
       <c r="E32">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.55000000000000004</v>
       </c>
@@ -9441,13 +9797,33 @@
       <c r="F33">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C34">
         <v>0.02</v>
@@ -9459,15 +9835,15 @@
         <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.65</v>
       </c>
       <c r="B35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C35">
         <v>0.01</v>
@@ -9476,18 +9852,18 @@
         <v>0.01</v>
       </c>
       <c r="E35">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.7</v>
       </c>
       <c r="B36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -9496,18 +9872,18 @@
         <v>0.01</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
         <v>0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.75</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -9516,15 +9892,15 @@
         <v>0.01</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9537,57 +9913,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="I15" sqref="I15:M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="C3">
         <v>0.08</v>
       </c>
       <c r="D3">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="E3">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.45</v>
       </c>
@@ -9595,19 +9971,19 @@
         <v>0.92</v>
       </c>
       <c r="C4">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="D4">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="E4">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="F4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -9615,19 +9991,19 @@
         <v>0.92</v>
       </c>
       <c r="C5">
+        <v>0.77</v>
+      </c>
+      <c r="D5">
+        <v>0.84</v>
+      </c>
+      <c r="E5">
         <v>0.76</v>
       </c>
-      <c r="D5">
-        <v>0.83</v>
-      </c>
-      <c r="E5">
-        <v>0.75</v>
-      </c>
       <c r="F5">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.55000000000000004</v>
       </c>
@@ -9635,19 +10011,19 @@
         <v>0.92</v>
       </c>
       <c r="C6">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D6">
         <v>0.91</v>
       </c>
       <c r="E6">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F6">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
@@ -9667,7 +10043,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
@@ -9684,10 +10060,10 @@
         <v>0.79</v>
       </c>
       <c r="F8">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -9698,16 +10074,16 @@
         <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E9">
         <v>0.63</v>
       </c>
       <c r="F9">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.75</v>
       </c>
@@ -9721,18 +10097,18 @@
         <v>0.76</v>
       </c>
       <c r="E10">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F10">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -9740,169 +10116,255 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="D12">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="E12">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="F12">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C13">
-        <v>0.57999999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="D13">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>0.56999999999999995</v>
+        <v>0.63</v>
       </c>
       <c r="F13">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="C14">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="D14">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="E14">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="F14">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
       <c r="B15">
+        <v>0.96</v>
+      </c>
+      <c r="C15">
         <v>0.94</v>
       </c>
-      <c r="C15">
-        <v>0.92</v>
-      </c>
       <c r="D15">
+        <v>0.94</v>
+      </c>
+      <c r="E15">
         <v>0.93</v>
       </c>
-      <c r="E15">
-        <v>0.91</v>
-      </c>
       <c r="F15">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.95</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.6</v>
       </c>
       <c r="B16">
-        <v>0.92</v>
+        <v>0.94</v>
       </c>
       <c r="C16">
         <v>0.97</v>
       </c>
       <c r="D16">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E16">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="F16">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="C17">
         <v>0.99</v>
       </c>
       <c r="D17">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="E17">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="F17">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.94</v>
+      </c>
+      <c r="I17">
+        <f>ABS(B3-B12)</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:M24" si="0">ABS(C3-C12)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="E18">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="E19">
-        <v>0.51</v>
+        <v>0.59</v>
       </c>
       <c r="F19">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9916,28 +10378,68 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.45</v>
       </c>
       <c r="B22">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="D22">
-        <v>0.45</v>
+        <v>0.37</v>
       </c>
       <c r="E22">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="F22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -9945,59 +10447,102 @@
         <v>0.88</v>
       </c>
       <c r="C23">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="D23">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="E23">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="F23">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.37</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C24">
+        <v>0.81</v>
+      </c>
+      <c r="D24">
         <v>0.84</v>
       </c>
-      <c r="D24">
-        <v>0.87</v>
-      </c>
       <c r="E24">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="F24">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="C25">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="D25">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E25">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="F25">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.65</v>
       </c>
@@ -10008,81 +10553,181 @@
         <v>0.96</v>
       </c>
       <c r="D26">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E26">
         <v>0.73</v>
       </c>
       <c r="F26">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73</v>
+      </c>
+      <c r="I26">
+        <f>ABS(B3-B21)</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M33" si="2">ABS(C3-C21)</f>
+        <v>0.08</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.13</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="E27">
-        <v>0.57999999999999996</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F27">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.46</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I33" si="3">ABS(B4-B22)</f>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.22</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.75</v>
       </c>
       <c r="B28">
-        <v>0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D28">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="E28">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="F28">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.26</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
       <c r="B30">
+        <v>0.15</v>
+      </c>
+      <c r="C30">
         <v>0.06</v>
-      </c>
-      <c r="C30">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D30">
         <v>0.11</v>
       </c>
       <c r="E30">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F30">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -10090,19 +10735,39 @@
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="D31">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E31">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -10116,13 +10781,33 @@
         <v>0.03</v>
       </c>
       <c r="E32">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F32">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.55000000000000004</v>
       </c>
@@ -10133,21 +10818,41 @@
         <v>0.02</v>
       </c>
       <c r="D33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E33">
         <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C34">
         <v>0.01</v>
@@ -10159,10 +10864,10 @@
         <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.65</v>
       </c>
@@ -10179,10 +10884,10 @@
         <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.7</v>
       </c>
@@ -10193,21 +10898,21 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E36">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F36">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.75</v>
       </c>
       <c r="B37">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -10216,15 +10921,15 @@
         <v>0.01</v>
       </c>
       <c r="E37">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10236,48 +10941,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="C3">
         <v>0.15</v>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="E3">
         <v>0.14000000000000001</v>
@@ -10286,27 +10991,27 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.45</v>
       </c>
       <c r="B4">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D4">
-        <v>0.69</v>
-      </c>
-      <c r="E4">
-        <v>0.54</v>
-      </c>
       <c r="F4">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -10314,44 +11019,44 @@
         <v>0.93</v>
       </c>
       <c r="C5">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="D5">
         <v>0.87</v>
       </c>
       <c r="E5">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="F5">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.92</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="D6" s="1">
         <v>0.92</v>
       </c>
-      <c r="D6">
-        <v>0.92</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.9</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.86</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.6</v>
       </c>
       <c r="B7" s="1">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="C7" s="1">
         <v>0.96</v>
@@ -10363,50 +11068,50 @@
         <v>0.87</v>
       </c>
       <c r="F7" s="1">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
       <c r="B8">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
         <v>0.98</v>
       </c>
       <c r="D8">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="E8">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F8">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="C9">
         <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="E9">
+        <v>0.61</v>
+      </c>
+      <c r="F9">
         <v>0.62</v>
       </c>
-      <c r="F9">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.75</v>
       </c>
@@ -10420,18 +11125,18 @@
         <v>0.76</v>
       </c>
       <c r="E10">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="F10">
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.4</v>
       </c>
@@ -10442,36 +11147,36 @@
         <v>0.33</v>
       </c>
       <c r="D12">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E12">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="F12">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C13">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D13">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="E13">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="F13">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -10479,19 +11184,19 @@
         <v>0.96</v>
       </c>
       <c r="C14">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="D14">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F14">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
@@ -10499,19 +11204,22 @@
         <v>0.95</v>
       </c>
       <c r="C15">
+        <v>0.95</v>
+      </c>
+      <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15">
         <v>0.94</v>
       </c>
-      <c r="D15">
-        <v>0.94</v>
-      </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.93</v>
       </c>
-      <c r="F15">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.6</v>
       </c>
@@ -10519,7 +11227,7 @@
         <v>0.91</v>
       </c>
       <c r="C16">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D16">
         <v>0.94</v>
@@ -10528,35 +11236,58 @@
         <v>0.91</v>
       </c>
       <c r="F16">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C17">
         <v>0.99</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E17">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="F17">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.89</v>
+      </c>
+      <c r="I17">
+        <f>ABS(B3-B12)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:M24" si="0">ABS(C3-C12)</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -10568,40 +11299,100 @@
         <v>0.67</v>
       </c>
       <c r="F18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.74</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0.1100000000000001</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.23999999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="E19">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="F19">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.64</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.84</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -10615,8 +11406,28 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.45</v>
       </c>
@@ -10624,104 +11435,187 @@
         <v>0.89</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="D22">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="E22">
-        <v>0.28999999999999998</v>
+        <v>0.34</v>
       </c>
       <c r="F22">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="C23">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="D23">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="F23">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.52</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C24">
+        <v>0.87</v>
+      </c>
+      <c r="D24">
         <v>0.89</v>
       </c>
-      <c r="D24">
-        <v>0.9</v>
-      </c>
       <c r="E24">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F24">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.76</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0.21000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="C25">
         <v>0.94</v>
       </c>
       <c r="D25">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E25">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F25">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.82</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.65</v>
       </c>
       <c r="B26">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="C26">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D26">
         <v>0.86</v>
       </c>
       <c r="E26">
+        <v>0.71</v>
+      </c>
+      <c r="F26">
         <v>0.72</v>
       </c>
-      <c r="F26">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f>ABS(B3-B21)</f>
+        <v>0.65</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M33" si="2">ABS(C3-C21)</f>
+        <v>0.15</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.24</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C27">
         <v>0.99</v>
@@ -10730,13 +11624,33 @@
         <v>0.79</v>
       </c>
       <c r="E27">
-        <v>0.55000000000000004</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F27">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.51</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I33" si="3">ABS(B4-B22)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0.24000000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.75</v>
       </c>
@@ -10747,41 +11661,101 @@
         <v>0.99</v>
       </c>
       <c r="D28">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E28">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F28">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
       <c r="B30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="C30">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D30">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="E30">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F30">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -10789,19 +11763,39 @@
         <v>0.02</v>
       </c>
       <c r="C31">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D31">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="E31">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -10820,8 +11814,28 @@
       <c r="F32">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.55000000000000004</v>
       </c>
@@ -10829,24 +11843,44 @@
         <v>0.01</v>
       </c>
       <c r="C33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D33">
         <v>0.01</v>
       </c>
       <c r="E33">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.6</v>
       </c>
       <c r="B34">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C34">
         <v>0.01</v>
@@ -10858,10 +11892,10 @@
         <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.65</v>
       </c>
@@ -10878,10 +11912,10 @@
         <v>0.02</v>
       </c>
       <c r="F35">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.7</v>
       </c>
@@ -10898,10 +11932,10 @@
         <v>0.03</v>
       </c>
       <c r="F36">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.75</v>
       </c>
@@ -10921,9 +11955,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -10935,37 +11969,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+      <selection activeCell="F33" sqref="A33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -10973,19 +12007,19 @@
         <v>0.92</v>
       </c>
       <c r="C3">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D3">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="E3">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F3">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.45</v>
       </c>
@@ -11002,10 +12036,10 @@
         <v>0.64</v>
       </c>
       <c r="F4">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -11025,12 +12059,12 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.55000000000000004</v>
       </c>
       <c r="B6" s="1">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C6" s="1">
         <v>0.93</v>
@@ -11039,13 +12073,13 @@
         <v>0.92</v>
       </c>
       <c r="E6" s="1">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F6" s="1">
         <v>0.89</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.6</v>
       </c>
@@ -11065,7 +12099,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.65</v>
       </c>
@@ -11079,13 +12113,13 @@
         <v>0.87</v>
       </c>
       <c r="E8">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="F8">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.7</v>
       </c>
@@ -11096,21 +12130,21 @@
         <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
         <v>0.59</v>
       </c>
       <c r="F9">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.75</v>
       </c>
       <c r="B10">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11119,78 +12153,78 @@
         <v>0.75</v>
       </c>
       <c r="E10">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F10">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.4</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="C12">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="D12">
-        <v>0.57999999999999996</v>
+        <v>0.62</v>
       </c>
       <c r="E12">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="C13">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="D13">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="E13">
+        <v>0.78</v>
+      </c>
+      <c r="F13">
         <v>0.73</v>
       </c>
-      <c r="F13">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <v>0.92</v>
+      </c>
+      <c r="E14">
+        <v>0.9</v>
+      </c>
+      <c r="F14">
         <v>0.89</v>
       </c>
-      <c r="D14">
-        <v>0.91</v>
-      </c>
-      <c r="E14">
-        <v>0.88</v>
-      </c>
-      <c r="F14">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.55000000000000004</v>
       </c>
@@ -11201,41 +12235,47 @@
         <v>0.95</v>
       </c>
       <c r="D15">
+        <v>0.95</v>
+      </c>
+      <c r="E15">
         <v>0.94</v>
       </c>
-      <c r="E15">
-        <v>0.93</v>
-      </c>
       <c r="F15">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.94</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.6</v>
       </c>
       <c r="B16">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C16">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D16">
         <v>0.94</v>
       </c>
       <c r="E16">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F16">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C17">
         <v>0.99</v>
@@ -11244,38 +12284,78 @@
         <v>0.9</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="F17">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <f>ABS(B3-B12)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:M24" si="0">ABS(C3-C12)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.18</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0.13999999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="C18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>0.84</v>
       </c>
       <c r="E18">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F18">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11284,58 +12364,138 @@
         <v>0.78</v>
       </c>
       <c r="E19">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F19">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="C21">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D21">
+        <v>0.13</v>
+      </c>
+      <c r="E21">
         <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E21">
-        <v>0.03</v>
       </c>
       <c r="F21">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.45</v>
       </c>
       <c r="B22">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C22">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D22">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="E22">
         <v>0.52</v>
       </c>
       <c r="F22">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -11346,41 +12506,81 @@
         <v>0.79</v>
       </c>
       <c r="D23">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="E23">
         <v>0.78</v>
       </c>
       <c r="F23">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
+        <v>0.88</v>
+      </c>
+      <c r="C24">
+        <v>0.9</v>
+      </c>
+      <c r="D24">
         <v>0.89</v>
       </c>
-      <c r="C24">
-        <v>0.91</v>
-      </c>
-      <c r="D24">
-        <v>0.91</v>
-      </c>
       <c r="E24">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F24">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.6</v>
       </c>
       <c r="B25">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C25">
         <v>0.94</v>
@@ -11389,13 +12589,16 @@
         <v>0.88</v>
       </c>
       <c r="E25">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.65</v>
       </c>
@@ -11412,55 +12615,135 @@
         <v>0.67</v>
       </c>
       <c r="F26">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.63</v>
+      </c>
+      <c r="I26">
+        <f>ABS(B3-B21)</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M33" si="2">ABS(C3-C21)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="D27">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E27">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="F27">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.4</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I33" si="3">ABS(B4-B22)</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.75</v>
       </c>
       <c r="B28">
-        <v>0.56999999999999995</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C28">
         <v>0.99</v>
       </c>
       <c r="D28">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="E28">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="F28">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.21</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.4</v>
       </c>
@@ -11468,19 +12751,39 @@
         <v>0.03</v>
       </c>
       <c r="C30">
+        <v>0.08</v>
+      </c>
+      <c r="D30">
         <v>0.1</v>
       </c>
-      <c r="D30">
-        <v>0.13</v>
-      </c>
       <c r="E30">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F30">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -11491,16 +12794,36 @@
         <v>0.05</v>
       </c>
       <c r="D31">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="E31">
         <v>0.05</v>
       </c>
       <c r="F31">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -11508,19 +12831,39 @@
         <v>0.01</v>
       </c>
       <c r="C32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D32">
         <v>0.02</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F32">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>0.16999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.55000000000000004</v>
       </c>
@@ -11539,8 +12882,28 @@
       <c r="F33">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.6</v>
       </c>
@@ -11560,27 +12923,27 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.65</v>
       </c>
       <c r="B35">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>0.01</v>
-      </c>
-      <c r="D35">
-        <v>0.02</v>
       </c>
       <c r="E35">
         <v>0.03</v>
       </c>
       <c r="F35">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.7</v>
       </c>
@@ -11591,16 +12954,16 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E36">
         <v>0.03</v>
       </c>
       <c r="F36">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.75</v>
       </c>
@@ -11620,9 +12983,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11637,26 +13000,26 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,7 +13029,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0.89</v>
@@ -11686,7 +13049,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.89</v>
@@ -11706,7 +13069,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.92</v>
@@ -11726,7 +13089,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>0.88</v>
@@ -11746,7 +13109,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2">
         <v>0.91</v>
@@ -11771,7 +13134,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.91</v>
@@ -11791,7 +13154,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.91</v>
@@ -11811,7 +13174,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0.94</v>
@@ -11831,7 +13194,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0.9</v>
@@ -11851,7 +13214,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0.93</v>
@@ -11876,7 +13239,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.86</v>
@@ -11896,7 +13259,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0.85</v>
@@ -11916,7 +13279,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17">
         <v>0.89</v>
@@ -11936,7 +13299,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>0.85</v>
@@ -11956,7 +13319,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19">
         <v>0.88</v>
@@ -11981,7 +13344,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.01</v>
@@ -12001,7 +13364,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>0.01</v>
@@ -12021,7 +13384,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>0.01</v>
@@ -12041,7 +13404,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>0.01</v>
@@ -12061,7 +13424,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B25">
         <v>0.01</v>
@@ -12081,12 +13444,12 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28">
         <f>B9-B3</f>
@@ -12310,6 +13673,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/log/clustering_log/clustering1/clustering1 sumary.xlsx
+++ b/log/clustering_log/clustering1/clustering1 sumary.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhongTing\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宗廷\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="6比4" sheetId="6" r:id="rId1"/>
-    <sheet name="7比3" sheetId="2" r:id="rId2"/>
-    <sheet name="8比2" sheetId="3" r:id="rId3"/>
-    <sheet name="9比1" sheetId="4" r:id="rId4"/>
-    <sheet name="總比較" sheetId="5" r:id="rId5"/>
+    <sheet name="5比5" sheetId="7" r:id="rId1"/>
+    <sheet name="6比4" sheetId="6" r:id="rId2"/>
+    <sheet name="7比3" sheetId="2" r:id="rId3"/>
+    <sheet name="8比2" sheetId="3" r:id="rId4"/>
+    <sheet name="9比1" sheetId="4" r:id="rId5"/>
+    <sheet name="總比較" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
   <si>
     <t>mean</t>
   </si>
@@ -107,11 +108,14 @@
     <t>負</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>test finished in 39200.70 seconds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -195,7 +199,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -237,7 +241,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>6:4</a:t>
+              <a:t>5:5</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -285,7 +289,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$3</c:f>
+              <c:f>'5比5'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,7 +310,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -329,29 +333,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$3:$F$3</c:f>
+              <c:f>'5比5'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81</c:v>
+                  <c:v>0.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.09</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.04</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -362,7 +366,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$4</c:f>
+              <c:f>'5比5'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -383,7 +387,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -406,29 +410,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$4:$F$4</c:f>
+              <c:f>'5比5'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.89</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.47</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -439,7 +443,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$5</c:f>
+              <c:f>'5比5'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -460,7 +464,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -483,29 +487,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$5:$F$5</c:f>
+              <c:f>'5比5'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -516,7 +520,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$6</c:f>
+              <c:f>'5比5'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,7 +541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -560,29 +564,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$6:$F$6</c:f>
+              <c:f>'5比5'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -593,7 +597,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$7</c:f>
+              <c:f>'5比5'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -614,7 +618,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -637,7 +641,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$7:$F$7</c:f>
+              <c:f>'5比5'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -645,21 +649,21 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.85</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -670,7 +674,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$8</c:f>
+              <c:f>'5比5'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,7 +697,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -716,7 +720,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$8:$F$8</c:f>
+              <c:f>'5比5'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -724,13 +728,13 @@
                   <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.83</c:v>
@@ -738,7 +742,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -749,7 +753,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$9</c:f>
+              <c:f>'5比5'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -772,7 +776,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -795,7 +799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$9:$F$9</c:f>
+              <c:f>'5比5'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -806,10 +810,10 @@
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.69</c:v>
@@ -817,7 +821,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -828,7 +832,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'6比4'!$A$10</c:f>
+              <c:f>'5比5'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -851,7 +855,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'6比4'!$B$1:$F$1</c:f>
+              <c:f>'5比5'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -874,7 +878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'6比4'!$B$10:$F$10</c:f>
+              <c:f>'5比5'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -891,12 +895,12 @@
                   <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -912,9 +916,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1643405488"/>
-        <c:axId val="1643406032"/>
-        <c:extLst>
+        <c:axId val="-326154336"/>
+        <c:axId val="-326144000"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -925,7 +929,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$A$2</c15:sqref>
+                          <c15:sqref>'5比5'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -970,7 +974,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'5比5'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -999,7 +1003,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'6比4'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'5比5'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1009,7 +1013,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-EAA0-4875-99A4-17A71C6AC087}"/>
                   </c:ext>
@@ -1020,7 +1024,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1643405488"/>
+        <c:axId val="-326154336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1067,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643406032"/>
+        <c:crossAx val="-326144000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643406032"/>
+        <c:axId val="-326144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1179,7 +1183,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643405488"/>
+        <c:crossAx val="-326154336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1261,7 +1265,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1303,7 +1307,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>7:3</a:t>
+              <a:t>6:4</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -1351,7 +1355,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$3</c:f>
+              <c:f>'6比4'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1372,7 +1376,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1395,31 +1399,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$3:$F$3</c:f>
+              <c:f>'6比4'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.08</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.02</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000000-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1428,7 +1432,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$4</c:f>
+              <c:f>'6比4'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1449,7 +1453,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1472,31 +1476,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$4:$F$4</c:f>
+              <c:f>'6比4'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000001-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1505,7 +1509,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$5</c:f>
+              <c:f>'6比4'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1526,7 +1530,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1549,31 +1553,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$5:$F$5</c:f>
+              <c:f>'6比4'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000002-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1582,7 +1586,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$6</c:f>
+              <c:f>'6比4'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1603,7 +1607,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1626,31 +1630,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$6:$F$6</c:f>
+              <c:f>'6比4'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000003-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1659,7 +1663,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$7</c:f>
+              <c:f>'6比4'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1680,7 +1684,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1703,7 +1707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$7:$F$7</c:f>
+              <c:f>'6比4'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1711,23 +1715,23 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000004-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,7 +1740,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$8</c:f>
+              <c:f>'6比4'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1759,7 +1763,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1782,31 +1786,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$8:$F$8</c:f>
+              <c:f>'6比4'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.98</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000005-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1815,7 +1819,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$9</c:f>
+              <c:f>'6比4'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1838,7 +1842,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1861,31 +1865,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$9:$F$9</c:f>
+              <c:f>'6比4'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.71</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000006-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1894,7 +1898,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'7比3'!$A$10</c:f>
+              <c:f>'6比4'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1917,7 +1921,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'7比3'!$B$1:$F$1</c:f>
+              <c:f>'6比4'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1940,7 +1944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'7比3'!$B$10:$F$10</c:f>
+              <c:f>'6比4'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1954,17 +1958,17 @@
                   <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-6FBA-45F2-898E-0C3EC2516EC3}"/>
+              <c16:uniqueId val="{00000007-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1978,9 +1982,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1643403312"/>
-        <c:axId val="1643412016"/>
-        <c:extLst>
+        <c:axId val="-578379440"/>
+        <c:axId val="-578383248"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1988,10 +1992,10 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$A$2</c15:sqref>
+                          <c15:sqref>'6比4'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2033,10 +2037,10 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'6比4'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2062,10 +2066,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'7比3'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'6比4'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -2075,9 +2079,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-6FBA-45F2-898E-0C3EC2516EC3}"/>
+                    <c16:uniqueId val="{00000008-EAA0-4875-99A4-17A71C6AC087}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2086,7 +2090,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1643403312"/>
+        <c:axId val="-578379440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,7 +2133,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643412016"/>
+        <c:crossAx val="-578383248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2137,7 +2141,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643412016"/>
+        <c:axId val="-578383248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2245,7 +2249,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643403312"/>
+        <c:crossAx val="-578379440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2327,7 +2331,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2369,7 +2373,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>8:2</a:t>
+              <a:t>7:3</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -2417,7 +2421,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$3</c:f>
+              <c:f>'7比3'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2438,7 +2442,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2461,31 +2465,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$3:$F$3</c:f>
+              <c:f>'7比3'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000000-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2494,7 +2498,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$4</c:f>
+              <c:f>'7比3'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2515,7 +2519,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2538,7 +2542,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$4:$F$4</c:f>
+              <c:f>'7比3'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2546,23 +2550,23 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.56000000000000005</c:v>
+                  <c:v>0.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000001-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2571,7 +2575,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$5</c:f>
+              <c:f>'7比3'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2592,7 +2596,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2615,31 +2619,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$5:$F$5</c:f>
+              <c:f>'7比3'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.93</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.72</c:v>
+                  <c:v>0.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000002-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2648,7 +2652,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$6</c:f>
+              <c:f>'7比3'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2667,75 +2671,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'8比2'!$I$20:$M$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.9999999999999916E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>3.9999999999999925E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.9999999999999916E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>3.9999999999999925E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.0000000000000062E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'8比2'!$I$29:$M$29</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.9999999999999978E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2758,7 +2696,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$6:$F$6</c:f>
+              <c:f>'7比3'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2766,23 +2704,23 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.91</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000003-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2791,7 +2729,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$7</c:f>
+              <c:f>'7比3'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2810,75 +2748,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>'8比2'!$I$21:$M$21</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.0000000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.9999999999999907E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.0000000000000044E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>'8比2'!$I$30:$M$30</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>6.0000000000000053E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2901,21 +2773,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$7:$F$7</c:f>
+              <c:f>'7比3'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.88</c:v>
@@ -2923,9 +2795,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000004-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2934,7 +2806,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$8</c:f>
+              <c:f>'7比3'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2957,7 +2829,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2980,31 +2852,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$8:$F$8</c:f>
+              <c:f>'7比3'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77</c:v>
+                  <c:v>0.79</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000005-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3013,7 +2885,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$9</c:f>
+              <c:f>'7比3'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3036,7 +2908,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3059,31 +2931,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$9:$F$9</c:f>
+              <c:f>'7比3'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>0.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.81</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000006-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3092,7 +2964,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'8比2'!$A$10</c:f>
+              <c:f>'7比3'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3115,7 +2987,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'8比2'!$B$1:$F$1</c:f>
+              <c:f>'7比3'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3138,7 +3010,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'8比2'!$B$10:$F$10</c:f>
+              <c:f>'7比3'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3155,14 +3027,14 @@
                   <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-F839-4400-B001-FED286CB278D}"/>
+              <c16:uniqueId val="{00000007-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3176,9 +3048,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1643401680"/>
-        <c:axId val="1643404400"/>
-        <c:extLst>
+        <c:axId val="-578381072"/>
+        <c:axId val="-578387056"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3186,10 +3058,10 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$A$2</c15:sqref>
+                          <c15:sqref>'7比3'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3231,10 +3103,10 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'7比3'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3260,10 +3132,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'8比2'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'7比3'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -3273,9 +3145,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-F839-4400-B001-FED286CB278D}"/>
+                    <c16:uniqueId val="{00000008-6FBA-45F2-898E-0C3EC2516EC3}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -3284,7 +3156,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1643401680"/>
+        <c:axId val="-578381072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3327,7 +3199,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643404400"/>
+        <c:crossAx val="-578387056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3335,7 +3207,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643404400"/>
+        <c:axId val="-578387056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3443,7 +3315,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643401680"/>
+        <c:crossAx val="-578381072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3525,7 +3397,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3567,7 +3439,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>9:1</a:t>
+              <a:t>8:2</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -3615,7 +3487,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$3</c:f>
+              <c:f>'8比2'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3636,7 +3508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3659,31 +3531,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$3:$F$3</c:f>
+              <c:f>'8比2'!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000000-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3692,7 +3564,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$4</c:f>
+              <c:f>'8比2'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3713,7 +3585,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3736,7 +3608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$4:$F$4</c:f>
+              <c:f>'8比2'!$B$4:$F$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3744,23 +3616,23 @@
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45</c:v>
+                  <c:v>0.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000001-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3769,7 +3641,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$5</c:f>
+              <c:f>'8比2'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3790,7 +3662,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3813,31 +3685,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$5:$F$5</c:f>
+              <c:f>'8比2'!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.92</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.77</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000002-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3846,7 +3718,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$6</c:f>
+              <c:f>'8比2'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3865,9 +3737,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'8比2'!$I$20:$M$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.9999999999999925E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.0000000000000062E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'8比2'!$I$29:$M$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>9.9999999999999978E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3890,15 +3828,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$6:$F$6</c:f>
+              <c:f>'8比2'!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92</c:v>
@@ -3907,14 +3845,14 @@
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000003-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3923,7 +3861,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$7</c:f>
+              <c:f>'8比2'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3942,9 +3880,75 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'8比2'!$I$21:$M$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'8比2'!$I$30:$M$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3967,31 +3971,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$7:$F$7</c:f>
+              <c:f>'8比2'!$B$7:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.85</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000004-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4000,7 +4004,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$8</c:f>
+              <c:f>'8比2'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4023,7 +4027,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4046,31 +4050,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$8:$F$8</c:f>
+              <c:f>'8比2'!$B$8:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.78</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.87</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000005-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4079,7 +4083,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$9</c:f>
+              <c:f>'8比2'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4102,7 +4106,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4125,31 +4129,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$9:$F$9</c:f>
+              <c:f>'8比2'!$B$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.68</c:v>
+                  <c:v>0.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56999999999999995</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000006-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4158,7 +4162,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'9比1'!$A$10</c:f>
+              <c:f>'8比2'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4181,7 +4185,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:f>'8比2'!$B$1:$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4204,31 +4208,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9比1'!$B$10:$F$10</c:f>
+              <c:f>'8比2'!$B$10:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.6</c:v>
+                  <c:v>0.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.75</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.46</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C20E-41C1-804D-9DD11A87B535}"/>
+              <c16:uniqueId val="{00000007-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4242,9 +4246,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1643409296"/>
-        <c:axId val="1643407120"/>
-        <c:extLst>
+        <c:axId val="-578386512"/>
+        <c:axId val="-578381616"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -4252,10 +4256,10 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$A$2</c15:sqref>
+                          <c15:sqref>'8比2'!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4297,10 +4301,10 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$B$1:$F$1</c15:sqref>
+                          <c15:sqref>'8比2'!$B$1:$F$1</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4326,10 +4330,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'9比1'!$B$2:$F$2</c15:sqref>
+                          <c15:sqref>'8比2'!$B$2:$F$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4339,9 +4343,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000008-C20E-41C1-804D-9DD11A87B535}"/>
+                    <c16:uniqueId val="{00000008-F839-4400-B001-FED286CB278D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4350,7 +4354,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1643409296"/>
+        <c:axId val="-578386512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4393,7 +4397,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643407120"/>
+        <c:crossAx val="-578381616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4401,7 +4405,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643407120"/>
+        <c:axId val="-578381616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4509,7 +4513,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643409296"/>
+        <c:crossAx val="-578386512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4591,7 +4595,1073 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>algorithm1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="en-US"/>
+              <a:t> 標題比內文關鍵字</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>9:1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$5:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$6:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$7:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$9:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9比1'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9比1'!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9比1'!$B$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C20E-41C1-804D-9DD11A87B535}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-578385424"/>
+        <c:axId val="-578378352"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'9比1'!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-C20E-41C1-804D-9DD11A87B535}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-578385424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-578378352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-578378352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-578385424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4745,7 +5815,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -4888,7 +5958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -5031,7 +6101,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -5174,7 +6244,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -5317,7 +6387,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -5460,7 +6530,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -5475,12 +6545,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="88323344"/>
-        <c:axId val="88323888"/>
-        <c:extLst/>
+        <c:axId val="-578384880"/>
+        <c:axId val="-578382160"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88323344"/>
+        <c:axId val="-578384880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +6593,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88323888"/>
+        <c:crossAx val="-578382160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5531,7 +6601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88323888"/>
+        <c:axId val="-578382160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5640,7 +6710,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="88323344"/>
+        <c:crossAx val="-578384880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5921,6 +6991,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7934,6 +9044,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8490,7 +10103,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvPr id="2" name="圖表 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8527,7 +10140,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvPr id="3" name="圖表 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8585,6 +10198,43 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8887,7 +10537,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:M33"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8919,19 +10569,19 @@
         <v>0.4</v>
       </c>
       <c r="B3">
-        <v>0.81</v>
+        <v>0.73</v>
       </c>
       <c r="C3">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="E3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -8939,19 +10589,19 @@
         <v>0.45</v>
       </c>
       <c r="B4">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="C4">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="D4">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="E4">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
-        <v>0.12</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -8959,19 +10609,19 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="D5">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="E5">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="F5">
-        <v>0.53</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -8979,19 +10629,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B6">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="E6">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="F6">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -9002,16 +10652,16 @@
         <v>0.89</v>
       </c>
       <c r="C7" s="1">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="D7" s="1">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="E7" s="1">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="F7" s="1">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -9022,13 +10672,13 @@
         <v>0.83</v>
       </c>
       <c r="C8">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D8">
         <v>0.89</v>
       </c>
       <c r="E8">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="F8">
         <v>0.83</v>
@@ -9045,10 +10695,10 @@
         <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="E9">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F9">
         <v>0.69</v>
@@ -9071,7 +10721,7 @@
         <v>0.48</v>
       </c>
       <c r="F10">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -9087,16 +10737,16 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="E12">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F12">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -9104,19 +10754,19 @@
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C13">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="D13">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="E13">
-        <v>0.52</v>
+        <v>0.46</v>
       </c>
       <c r="F13">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -9124,19 +10774,19 @@
         <v>0.5</v>
       </c>
       <c r="B14">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="D14">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="E14">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="F14">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -9144,19 +10794,19 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B15">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="C15">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="D15">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="E15">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F15">
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="I15" t="s">
         <v>20</v>
@@ -9167,19 +10817,19 @@
         <v>0.6</v>
       </c>
       <c r="B16">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="C16">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="D16">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E16">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F16">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="I16" t="s">
         <v>21</v>
@@ -9190,39 +10840,39 @@
         <v>0.65</v>
       </c>
       <c r="B17">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="C17">
         <v>0.98</v>
       </c>
       <c r="D17">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="E17">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="F17">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="I17">
         <f>ABS(B3-B12)</f>
-        <v>0.18999999999999995</v>
+        <v>0.27</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:M17" si="0">ABS(C3-C12)</f>
-        <v>0.15000000000000002</v>
+        <f>ABS(C3-C12)</f>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0.24000000000000002</v>
+        <f>ABS(E3-E12)</f>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" si="0"/>
-        <v>0.16</v>
+        <f t="shared" ref="L17:L24" si="0">ABS(F3-F12)</f>
+        <v>0.01</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>9.0000000000000011E-2</v>
+        <f>ABS(D3-D12)</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -9230,39 +10880,39 @@
         <v>0.7</v>
       </c>
       <c r="B18">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D18">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="E18">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="F18">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="I18">
         <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
-        <v>6.9999999999999951E-2</v>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" ref="J18:J24" si="2">ABS(C4-C13)</f>
-        <v>0.21000000000000002</v>
+        <f>ABS(C4-C13)</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="K18">
-        <f t="shared" ref="K18:K24" si="3">ABS(D4-D13)</f>
-        <v>0.20000000000000007</v>
+        <f>ABS(E4-E13)</f>
+        <v>0.23</v>
       </c>
       <c r="L18">
-        <f t="shared" ref="L18:L24" si="4">ABS(E4-E13)</f>
-        <v>0.21000000000000002</v>
+        <f t="shared" si="0"/>
+        <v>0.16</v>
       </c>
       <c r="M18">
-        <f t="shared" ref="M18:M24" si="5">ABS(F4-F13)</f>
-        <v>0.22000000000000003</v>
+        <f>ABS(D4-D13)</f>
+        <v>0.26</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -9270,39 +10920,39 @@
         <v>0.75</v>
       </c>
       <c r="B19">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E19">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="F19">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0.10000000000000009</v>
+        <f>ABS(C5-C14)</f>
+        <v>0.10999999999999999</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
-        <v>6.9999999999999951E-2</v>
+        <f>ABS(E5-E14)</f>
+        <v>0.10999999999999999</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
-        <v>0.19999999999999996</v>
+        <f>ABS(D5-D14)</f>
+        <v>7.999999999999996E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -9311,23 +10961,23 @@
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>4.9999999999999933E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>5.0000000000000044E-2</v>
+        <f>ABS(C6-C15)</f>
+        <v>5.9999999999999942E-2</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f>ABS(E6-E15)</f>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M20">
+        <f>ABS(D6-D15)</f>
         <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
-        <v>0.12</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -9335,7 +10985,7 @@
         <v>0.4</v>
       </c>
       <c r="B21">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -9351,23 +11001,23 @@
       </c>
       <c r="I21">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f>ABS(C7-C16)</f>
         <v>2.9999999999999916E-2</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
-        <v>2.9999999999999916E-2</v>
+        <f>ABS(E7-E16)</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
-        <v>8.0000000000000071E-2</v>
+        <f>ABS(D7-D16)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -9375,39 +11025,39 @@
         <v>0.45</v>
       </c>
       <c r="B22">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="C22">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="D22">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="E22">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="F22">
         <v>0.01</v>
       </c>
       <c r="I22">
         <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J22">
+        <f>ABS(C8-C17)</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K22">
+        <f>ABS(E8-E17)</f>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="4"/>
-        <v>6.9999999999999951E-2</v>
-      </c>
       <c r="M22">
-        <f t="shared" si="5"/>
-        <v>0.10000000000000009</v>
+        <f>ABS(D8-D17)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -9415,7 +11065,7 @@
         <v>0.5</v>
       </c>
       <c r="B23">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="C23">
         <v>0.54</v>
@@ -9427,27 +11077,27 @@
         <v>0.52</v>
       </c>
       <c r="F23">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="I23">
         <f t="shared" si="1"/>
-        <v>6.0000000000000053E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f>ABS(C9-C18)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>ABS(E9-E18)</f>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+      <c r="M23">
+        <f>ABS(D9-D18)</f>
         <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>8.9999999999999969E-2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="5"/>
-        <v>0.17000000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -9455,39 +11105,39 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B24">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C24">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="D24">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="E24">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="F24">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>4.0000000000000036E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f>ABS(C10-C19)</f>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000027E-2</v>
+        <f>ABS(E10-E19)</f>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000053E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.13</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
-        <v>0.15000000000000002</v>
+        <f>ABS(D10-D19)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -9495,19 +11145,19 @@
         <v>0.6</v>
       </c>
       <c r="B25">
+        <v>0.87</v>
+      </c>
+      <c r="C25">
         <v>0.85</v>
       </c>
-      <c r="C25">
-        <v>0.89</v>
-      </c>
       <c r="D25">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="E25">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="F25">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="I25" t="s">
         <v>22</v>
@@ -9518,39 +11168,39 @@
         <v>0.65</v>
       </c>
       <c r="B26">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="C26">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="D26">
         <v>0.87</v>
       </c>
       <c r="E26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F26">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="I26">
         <f>ABS(B3-B21)</f>
-        <v>0.67</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26:M33" si="6">ABS(C3-C21)</f>
-        <v>0.05</v>
+        <f>ABS(C3-C21)</f>
+        <v>0.01</v>
       </c>
       <c r="K26">
-        <f t="shared" si="6"/>
-        <v>0.09</v>
+        <f>ABS(E3-E21)</f>
+        <v>0.01</v>
       </c>
       <c r="L26">
-        <f t="shared" si="6"/>
-        <v>0.04</v>
+        <f t="shared" ref="L26:L33" si="2">ABS(F3-F21)</f>
+        <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
-        <v>0.01</v>
+        <f>ABS(D3-D21)</f>
+        <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -9558,39 +11208,39 @@
         <v>0.7</v>
       </c>
       <c r="B27">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="C27">
         <v>0.98</v>
       </c>
       <c r="D27">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E27">
-        <v>0.57999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="F27">
-        <v>0.55000000000000004</v>
+        <v>0.61</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I33" si="7">ABS(B4-B22)</f>
-        <v>0.10999999999999999</v>
+        <f t="shared" ref="I27:I33" si="3">ABS(B4-B22)</f>
+        <v>0.22999999999999998</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
-        <v>0.22</v>
+        <f>ABS(C4-C22)</f>
+        <v>0.19</v>
       </c>
       <c r="K27">
-        <f t="shared" si="6"/>
-        <v>0.29999999999999993</v>
+        <f>ABS(E4-E22)</f>
+        <v>0.19</v>
       </c>
       <c r="L27">
-        <f t="shared" si="6"/>
-        <v>0.22</v>
+        <f t="shared" si="2"/>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
-        <v>0.11</v>
+        <f>ABS(D4-D22)</f>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -9598,7 +11248,7 @@
         <v>0.75</v>
       </c>
       <c r="B28">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="C28">
         <v>0.99</v>
@@ -9607,30 +11257,30 @@
         <v>0.73</v>
       </c>
       <c r="E28">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="F28">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
-        <v>0.15999999999999992</v>
+        <f>ABS(C5-C23)</f>
+        <v>8.9999999999999969E-2</v>
       </c>
       <c r="K28">
-        <f t="shared" si="6"/>
-        <v>0.12</v>
+        <f>ABS(E5-E23)</f>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="6"/>
-        <v>0.16999999999999993</v>
+        <f t="shared" si="2"/>
+        <v>0.16999999999999998</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
-        <v>0.31000000000000005</v>
+        <f>ABS(D5-D23)</f>
+        <v>6.9999999999999951E-2</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -9638,24 +11288,24 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000027E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
-        <v>9.9999999999999978E-2</v>
+        <f>ABS(C6-C24)</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K29">
-        <f t="shared" si="6"/>
-        <v>6.0000000000000053E-2</v>
+        <f>ABS(E6-E24)</f>
+        <v>0.10999999999999999</v>
       </c>
       <c r="L29">
-        <f t="shared" si="6"/>
-        <v>0.10999999999999999</v>
+        <f t="shared" si="2"/>
+        <v>0.18000000000000005</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
-        <v>0.21999999999999997</v>
+        <f>ABS(D6-D24)</f>
+        <v>7.999999999999996E-2</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -9663,39 +11313,39 @@
         <v>0.4</v>
       </c>
       <c r="B30">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="C30">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="D30">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="F30">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
+        <f>ABS(C7-C25)</f>
+        <v>6.0000000000000053E-2</v>
       </c>
       <c r="K30">
-        <f t="shared" si="6"/>
+        <f>ABS(E7-E25)</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
-        <v>0.10999999999999999</v>
+        <f>ABS(D7-D25)</f>
+        <v>3.0000000000000027E-2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -9703,39 +11353,39 @@
         <v>0.45</v>
       </c>
       <c r="B31">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="C31">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D31">
+        <v>0.13</v>
+      </c>
+      <c r="E31">
         <v>0.11</v>
       </c>
-      <c r="E31">
-        <v>0.1</v>
-      </c>
       <c r="F31">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
-        <v>3.9999999999999925E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.9999999999999907E-2</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000009E-2</v>
+        <f>ABS(C8-C26)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="K31">
-        <f t="shared" si="6"/>
+        <f>ABS(E8-E26)</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="M31">
+        <f>ABS(D8-D26)</f>
         <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="6"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="6"/>
-        <v>7.999999999999996E-2</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -9752,30 +11402,30 @@
         <v>0.04</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F32">
         <v>0.1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
-        <v>4.9999999999999933E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f>ABS(C9-C27)</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="K32">
-        <f t="shared" si="6"/>
-        <v>2.9999999999999916E-2</v>
+        <f>ABS(E9-E27)</f>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="6"/>
-        <v>7.0000000000000062E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.999999999999996E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
-        <v>0.1399999999999999</v>
+        <f>ABS(D9-D27)</f>
+        <v>2.0000000000000018E-2</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -9786,36 +11436,36 @@
         <v>0.02</v>
       </c>
       <c r="C33">
+        <v>0.04</v>
+      </c>
+      <c r="D33">
         <v>0.03</v>
       </c>
-      <c r="D33">
-        <v>0.02</v>
-      </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F33">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f>ABS(C10-C28)</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="K33">
-        <f t="shared" si="6"/>
+        <f>ABS(E10-E28)</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>0.14999999999999997</v>
+      </c>
+      <c r="M33">
+        <f>ABS(D10-D28)</f>
         <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="6"/>
-        <v>0.06</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="6"/>
-        <v>0.15999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -9829,13 +11479,13 @@
         <v>0.02</v>
       </c>
       <c r="D34">
+        <v>0.02</v>
+      </c>
+      <c r="E34">
         <v>0.01</v>
       </c>
-      <c r="E34">
-        <v>0.02</v>
-      </c>
       <c r="F34">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -9872,10 +11522,10 @@
         <v>0.01</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -9892,15 +11542,15 @@
         <v>0.01</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>7.0000000000000007E-2</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -9916,6 +11566,1035 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.4</v>
+      </c>
+      <c r="B3">
+        <v>0.81</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+      <c r="D3">
+        <v>0.09</v>
+      </c>
+      <c r="E3">
+        <v>0.04</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.45</v>
+      </c>
+      <c r="B4">
+        <v>0.89</v>
+      </c>
+      <c r="C4">
+        <v>0.32</v>
+      </c>
+      <c r="D4">
+        <v>0.47</v>
+      </c>
+      <c r="E4">
+        <v>0.31</v>
+      </c>
+      <c r="F4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>0.91</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0.79</v>
+      </c>
+      <c r="E5">
+        <v>0.69</v>
+      </c>
+      <c r="F5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B6">
+        <v>0.91</v>
+      </c>
+      <c r="C6">
+        <v>0.86</v>
+      </c>
+      <c r="D6">
+        <v>0.88</v>
+      </c>
+      <c r="E6">
+        <v>0.85</v>
+      </c>
+      <c r="F6">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.65</v>
+      </c>
+      <c r="B8">
+        <v>0.83</v>
+      </c>
+      <c r="C8">
+        <v>0.97</v>
+      </c>
+      <c r="D8">
+        <v>0.89</v>
+      </c>
+      <c r="E8">
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.7</v>
+      </c>
+      <c r="B9">
+        <v>0.72</v>
+      </c>
+      <c r="C9">
+        <v>0.99</v>
+      </c>
+      <c r="D9">
+        <v>0.83</v>
+      </c>
+      <c r="E9">
+        <v>0.65</v>
+      </c>
+      <c r="F9">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.75</v>
+      </c>
+      <c r="B10">
+        <v>0.61</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.76</v>
+      </c>
+      <c r="E10">
+        <v>0.48</v>
+      </c>
+      <c r="F10">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.33</v>
+      </c>
+      <c r="E12">
+        <v>0.2</v>
+      </c>
+      <c r="F12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.45</v>
+      </c>
+      <c r="B13">
+        <v>0.96</v>
+      </c>
+      <c r="C13">
+        <v>0.53</v>
+      </c>
+      <c r="D13">
+        <v>0.67</v>
+      </c>
+      <c r="E13">
+        <v>0.52</v>
+      </c>
+      <c r="F13">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.5</v>
+      </c>
+      <c r="B14">
+        <v>0.96</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>0.86</v>
+      </c>
+      <c r="E14">
+        <v>0.79</v>
+      </c>
+      <c r="F14">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B15">
+        <v>0.96</v>
+      </c>
+      <c r="C15">
+        <v>0.91</v>
+      </c>
+      <c r="D15">
+        <v>0.92</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>0.89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.6</v>
+      </c>
+      <c r="B16">
+        <v>0.93</v>
+      </c>
+      <c r="C16">
+        <v>0.96</v>
+      </c>
+      <c r="D16">
+        <v>0.94</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+      <c r="F16">
+        <v>0.93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.65</v>
+      </c>
+      <c r="B17">
+        <v>0.88</v>
+      </c>
+      <c r="C17">
+        <v>0.98</v>
+      </c>
+      <c r="D17">
+        <v>0.93</v>
+      </c>
+      <c r="E17">
+        <v>0.87</v>
+      </c>
+      <c r="F17">
+        <v>0.93</v>
+      </c>
+      <c r="I17">
+        <f>ABS(B3-B12)</f>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:M17" si="0">ABS(C3-C12)</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0.24000000000000002</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.16</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.7</v>
+      </c>
+      <c r="B18">
+        <v>0.78</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.88</v>
+      </c>
+      <c r="E18">
+        <v>0.74</v>
+      </c>
+      <c r="F18">
+        <v>0.86</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J24" si="2">ABS(C4-C13)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ref="K18:K24" si="3">ABS(D4-D13)</f>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ref="L18:L24" si="4">ABS(E4-E13)</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18:M24" si="5">ABS(F4-F13)</f>
+        <v>0.22000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.75</v>
+      </c>
+      <c r="B19">
+        <v>0.65</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0.79</v>
+      </c>
+      <c r="E19">
+        <v>0.54</v>
+      </c>
+      <c r="F19">
+        <v>0.62</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.4</v>
+      </c>
+      <c r="B21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000071E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.45</v>
+      </c>
+      <c r="B22">
+        <v>0.78</v>
+      </c>
+      <c r="C22">
+        <v>0.1</v>
+      </c>
+      <c r="D22">
+        <v>0.17</v>
+      </c>
+      <c r="E22">
+        <v>0.09</v>
+      </c>
+      <c r="F22">
+        <v>0.01</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.5</v>
+      </c>
+      <c r="B23">
+        <v>0.87</v>
+      </c>
+      <c r="C23">
+        <v>0.54</v>
+      </c>
+      <c r="D23">
+        <v>0.67</v>
+      </c>
+      <c r="E23">
+        <v>0.52</v>
+      </c>
+      <c r="F23">
+        <v>0.22</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.17000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>0.88</v>
+      </c>
+      <c r="C24">
+        <v>0.76</v>
+      </c>
+      <c r="D24">
+        <v>0.82</v>
+      </c>
+      <c r="E24">
+        <v>0.74</v>
+      </c>
+      <c r="F24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.15000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.6</v>
+      </c>
+      <c r="B25">
+        <v>0.85</v>
+      </c>
+      <c r="C25">
+        <v>0.89</v>
+      </c>
+      <c r="D25">
+        <v>0.88</v>
+      </c>
+      <c r="E25">
+        <v>0.83</v>
+      </c>
+      <c r="F25">
+        <v>0.74</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.65</v>
+      </c>
+      <c r="B26">
+        <v>0.79</v>
+      </c>
+      <c r="C26">
+        <v>0.96</v>
+      </c>
+      <c r="D26">
+        <v>0.87</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <f>ABS(B3-B21)</f>
+        <v>0.67</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26:M33" si="6">ABS(C3-C21)</f>
+        <v>0.05</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>0.09</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>0.04</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.7</v>
+      </c>
+      <c r="B27">
+        <v>0.67</v>
+      </c>
+      <c r="C27">
+        <v>0.98</v>
+      </c>
+      <c r="D27">
+        <v>0.8</v>
+      </c>
+      <c r="E27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I33" si="7">ABS(B4-B22)</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>0.22</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.75</v>
+      </c>
+      <c r="B28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.99</v>
+      </c>
+      <c r="D28">
+        <v>0.73</v>
+      </c>
+      <c r="E28">
+        <v>0.42</v>
+      </c>
+      <c r="F28">
+        <v>0.31</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>0.12</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0.31000000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.4</v>
+      </c>
+      <c r="B30">
+        <v>0.22</v>
+      </c>
+      <c r="C30">
+        <v>0.05</v>
+      </c>
+      <c r="D30">
+        <v>0.08</v>
+      </c>
+      <c r="E30">
+        <v>0.05</v>
+      </c>
+      <c r="F30">
+        <v>0.01</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.10999999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.45</v>
+      </c>
+      <c r="B31">
+        <v>0.03</v>
+      </c>
+      <c r="C31">
+        <v>0.1</v>
+      </c>
+      <c r="D31">
+        <v>0.11</v>
+      </c>
+      <c r="E31">
+        <v>0.1</v>
+      </c>
+      <c r="F31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>3.9999999999999925E-2</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="B32">
+        <v>0.02</v>
+      </c>
+      <c r="C32">
+        <v>0.05</v>
+      </c>
+      <c r="D32">
+        <v>0.04</v>
+      </c>
+      <c r="E32">
+        <v>0.05</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B33">
+        <v>0.02</v>
+      </c>
+      <c r="C33">
+        <v>0.03</v>
+      </c>
+      <c r="D33">
+        <v>0.02</v>
+      </c>
+      <c r="E33">
+        <v>0.03</v>
+      </c>
+      <c r="F33">
+        <v>0.06</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="6"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>0.06</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.6</v>
+      </c>
+      <c r="B34">
+        <v>0.01</v>
+      </c>
+      <c r="C34">
+        <v>0.02</v>
+      </c>
+      <c r="D34">
+        <v>0.01</v>
+      </c>
+      <c r="E34">
+        <v>0.02</v>
+      </c>
+      <c r="F34">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.65</v>
+      </c>
+      <c r="B35">
+        <v>0.02</v>
+      </c>
+      <c r="C35">
+        <v>0.01</v>
+      </c>
+      <c r="D35">
+        <v>0.01</v>
+      </c>
+      <c r="E35">
+        <v>0.02</v>
+      </c>
+      <c r="F35">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.7</v>
+      </c>
+      <c r="B36">
+        <v>0.02</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0.01</v>
+      </c>
+      <c r="E36">
+        <v>0.03</v>
+      </c>
+      <c r="F36">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.75</v>
+      </c>
+      <c r="B37">
+        <v>0.02</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.01</v>
+      </c>
+      <c r="E37">
+        <v>0.03</v>
+      </c>
+      <c r="F37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15:M33"/>
     </sheetView>
   </sheetViews>
@@ -10939,7 +13618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -11967,7 +14646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M38"/>
   <sheetViews>
@@ -12995,12 +15674,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/log/clustering_log/clustering1/clustering1 sumary.xlsx
+++ b/log/clustering_log/clustering1/clustering1 sumary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宗廷\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhongTing\Desktop\HotTopicDetection\log\clustering_log\clustering1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <sheet name="9比1" sheetId="4" r:id="rId5"/>
     <sheet name="總比較" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="27">
   <si>
     <t>mean</t>
   </si>
@@ -78,9 +78,6 @@
     <t>9:1-0.55</t>
   </si>
   <si>
-    <t>test finished in 35152.17 seconds</t>
-  </si>
-  <si>
     <t>誤差線</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -111,11 +108,25 @@
   <si>
     <t>test finished in 39200.70 seconds</t>
   </si>
+  <si>
+    <t>5:5-0.6</t>
+  </si>
+  <si>
+    <t>test finished in 40401.87 seconds</t>
+  </si>
+  <si>
+    <t>正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>負</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -199,7 +210,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -247,7 +258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -355,7 +365,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -432,7 +442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -509,7 +519,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -586,7 +596,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -663,7 +673,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -742,7 +752,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -821,7 +831,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -900,7 +910,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -918,7 +928,7 @@
         <c:overlap val="-27"/>
         <c:axId val="-326154336"/>
         <c:axId val="-326144000"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1013,7 +1023,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-EAA0-4875-99A4-17A71C6AC087}"/>
                   </c:ext>
@@ -1122,7 +1132,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1197,7 +1206,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1265,7 +1273,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -1313,7 +1321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1421,7 +1428,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1498,7 +1505,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1575,7 +1582,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1652,7 +1659,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1729,7 +1736,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1808,7 +1815,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1887,7 +1894,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1966,7 +1973,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-EAA0-4875-99A4-17A71C6AC087}"/>
             </c:ext>
@@ -1984,7 +1991,7 @@
         <c:overlap val="-27"/>
         <c:axId val="-578379440"/>
         <c:axId val="-578383248"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -1992,7 +1999,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6比4'!$A$2</c15:sqref>
@@ -2037,7 +2044,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6比4'!$B$1:$F$1</c15:sqref>
@@ -2066,7 +2073,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'6比4'!$B$2:$F$2</c15:sqref>
@@ -2079,7 +2086,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-EAA0-4875-99A4-17A71C6AC087}"/>
                   </c:ext>
@@ -2188,7 +2195,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2263,7 +2269,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2331,7 +2336,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -2379,7 +2384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2487,7 +2491,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2564,7 +2568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2641,7 +2645,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2718,7 +2722,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2795,7 +2799,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2874,7 +2878,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -2953,7 +2957,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -3032,7 +3036,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-6FBA-45F2-898E-0C3EC2516EC3}"/>
             </c:ext>
@@ -3050,7 +3054,7 @@
         <c:overlap val="-27"/>
         <c:axId val="-578381072"/>
         <c:axId val="-578387056"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -3058,7 +3062,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'7比3'!$A$2</c15:sqref>
@@ -3103,7 +3107,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'7比3'!$B$1:$F$1</c15:sqref>
@@ -3132,7 +3136,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'7比3'!$B$2:$F$2</c15:sqref>
@@ -3145,7 +3149,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-6FBA-45F2-898E-0C3EC2516EC3}"/>
                   </c:ext>
@@ -3254,7 +3258,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3329,7 +3332,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3397,7 +3399,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -3445,7 +3447,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3553,7 +3554,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -3630,7 +3631,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -3707,7 +3708,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -3850,7 +3851,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -3993,7 +3994,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -4072,7 +4073,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -4151,7 +4152,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -4230,7 +4231,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-F839-4400-B001-FED286CB278D}"/>
             </c:ext>
@@ -4248,7 +4249,7 @@
         <c:overlap val="-27"/>
         <c:axId val="-578386512"/>
         <c:axId val="-578381616"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -4256,7 +4257,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8比2'!$A$2</c15:sqref>
@@ -4301,7 +4302,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8比2'!$B$1:$F$1</c15:sqref>
@@ -4330,7 +4331,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'8比2'!$B$2:$F$2</c15:sqref>
@@ -4343,7 +4344,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-F839-4400-B001-FED286CB278D}"/>
                   </c:ext>
@@ -4452,7 +4453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4527,7 +4527,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4595,7 +4594,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -4643,7 +4642,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4751,7 +4749,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -4828,7 +4826,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -4905,7 +4903,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -4982,7 +4980,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -5059,7 +5057,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -5138,7 +5136,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -5217,7 +5215,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -5296,7 +5294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-C20E-41C1-804D-9DD11A87B535}"/>
             </c:ext>
@@ -5314,7 +5312,7 @@
         <c:overlap val="-27"/>
         <c:axId val="-578385424"/>
         <c:axId val="-578378352"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -5322,7 +5320,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'9比1'!$A$2</c15:sqref>
@@ -5367,7 +5365,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'9比1'!$B$1:$F$1</c15:sqref>
@@ -5396,7 +5394,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'9比1'!$B$2:$F$2</c15:sqref>
@@ -5409,7 +5407,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C20E-41C1-804D-9DD11A87B535}"/>
                   </c:ext>
@@ -5518,7 +5516,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5593,7 +5590,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5661,7 +5657,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
   <c:roundedCorners val="0"/>
@@ -5742,22 +5738,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>總比較!$A$2</c:f>
+              <c:f>總比較!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>mean</c:v>
+                  <c:v>5:5-0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5767,8 +5763,56 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$J$16:$N$16</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.9999999999999933E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$J$22:$N$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.0000000000000053E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.12000000000000011</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5808,25 +5852,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>總比較!$B$2:$F$2</c:f>
+              <c:f>總比較!$B$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-13A7-43D2-AC67-25F1A93E2E98}"/>
+              <c16:uniqueId val="{00000001-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>總比較!$A$3</c:f>
+              <c:f>總比較!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5837,7 +5896,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5851,21 +5910,21 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>總比較!$B$28:$F$28</c:f>
+                <c:f>總比較!$J$17:$N$17</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>3.0000000000000027E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>1.9999999999999907E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0000000000000018E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>6.0000000000000053E-2</c:v>
@@ -5875,21 +5934,164 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>總比較!$B$29:$F$29</c:f>
+                <c:f>總比較!$J$23:$N$23</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.0000000000000036E-2</c:v>
+                    <c:v>3.0000000000000027E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9999999999998979E-3</c:v>
+                    <c:v>2.0000000000000018E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>2.0000000000000018E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.9999999999999951E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7:3-0.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$J$18:$N$18</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.0000000000000009E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>5.0000000000000044E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$J$24:$N$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0000000000000027E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>5.9999999999999942E-2</c:v>
@@ -5936,7 +6138,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>總比較!$B$3:$F$3</c:f>
+              <c:f>總比較!$B$5:$F$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5944,43 +6146,43 @@
                   <c:v>0.89</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94</c:v>
+                  <c:v>0.95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-13A7-43D2-AC67-25F1A93E2E98}"/>
+              <c16:uniqueId val="{00000003-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>總比較!$A$4</c:f>
+              <c:f>總比較!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7:3-0.6</c:v>
+                  <c:v>8:2-0.55</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5994,7 +6196,31 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>總比較!$B$30:$F$30</c:f>
+                <c:f>總比較!$J$19:$N$19</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$J$25:$N$25</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -6002,40 +6228,16 @@
                     <c:v>2.0000000000000018E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.9999999999999907E-2</c:v>
+                    <c:v>1.0000000000000009E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.0000000000000044E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>總比較!$B$31:$F$31</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.9999999999999907E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5.0000000000000044E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.999999999999996E-2</c:v>
+                    <c:v>4.9999999999999933E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6079,150 +6281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>總比較!$B$4:$F$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-13A7-43D2-AC67-25F1A93E2E98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>總比較!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8:2-0.55</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>總比較!$B$32:$F$32</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>1.9999999999999907E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.9999999999999916E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0000000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>5.0000000000000044E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>總比較!$B$33:$F$33</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>5.0000000000000044E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>9.9999999999999978E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>總比較!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>總比較!$B$5:$F$5</c:f>
+              <c:f>總比較!$B$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6233,161 +6292,18 @@
                   <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92</c:v>
+                  <c:v>0.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86</c:v>
+                  <c:v>0.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-13A7-43D2-AC67-25F1A93E2E98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>總比較!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8:2-0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>總比較!$B$34:$F$34</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>1.0000000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0000000000000009E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>總比較!$B$35:$F$35</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="5"/>
-                  <c:pt idx="0">
-                    <c:v>3.0000000000000027E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>2.0000000000000018E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>4.0000000000000036E-2</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>7.999999999999996E-2</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>總比較!$B$1:$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Completeness</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Homogeneity</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V-measure</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>AMI</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ARI</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>總比較!$B$6:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-13A7-43D2-AC67-25F1A93E2E98}"/>
             </c:ext>
@@ -6402,7 +6318,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9:1-0.55</c:v>
+                  <c:v>8:2-0.6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6423,31 +6339,31 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>總比較!$B$36:$F$36</c:f>
+                <c:f>總比較!$J$20:$N$20</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>9.9999999999998979E-3</c:v>
+                    <c:v>1.0000000000000009E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.0000000000000009E-2</c:v>
+                    <c:v>1.9999999999999907E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.0000000000000018E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.0000000000000036E-2</c:v>
+                    <c:v>5.9999999999999942E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>總比較!$B$37:$F$37</c:f>
+                <c:f>總比較!$J$26:$N$26</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -6455,13 +6371,13 @@
                     <c:v>3.0000000000000027E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0000000000000027E-2</c:v>
+                    <c:v>1.0000000000000009E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>3.0000000000000027E-2</c:v>
+                    <c:v>2.0000000000000018E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.0000000000000027E-2</c:v>
+                    <c:v>4.0000000000000036E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>6.0000000000000053E-2</c:v>
@@ -6513,16 +6429,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.91</c:v>
+                  <c:v>0.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>0.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.88</c:v>
@@ -6530,9 +6446,154 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-13A7-43D2-AC67-25F1A93E2E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>總比較!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>9:1-0.55</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>總比較!$J$21:$N$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.9999999999999916E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.9999999999998979E-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9999999999999907E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.0000000000000036E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>總比較!$J$27:$N$27</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0000000000000018E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3.0000000000000027E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>總比較!$B$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Completeness</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Homogeneity</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V-measure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AMI</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ARI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>總比較!$B$8:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96B9-4961-B22B-19F6DA36D6CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6547,7 +6608,110 @@
         <c:gapWidth val="219"/>
         <c:axId val="-578384880"/>
         <c:axId val="-578382160"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>總比較!$A$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="stdErr"/>
+                  <c:noEndCap val="0"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>總比較!$B$1:$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>Completeness</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Homogeneity</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>V-measure</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>AMI</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>ARI</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>總比較!$B$2:$F$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-13A7-43D2-AC67-25F1A93E2E98}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="-578384880"/>
@@ -10809,7 +10973,7 @@
         <v>0.82</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10832,7 +10996,7 @@
         <v>0.89</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -10863,15 +11027,15 @@
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="K17">
-        <f>ABS(E3-E12)</f>
+        <f t="shared" ref="K17:K24" si="0">ABS(E3-E12)</f>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L24" si="0">ABS(F3-F12)</f>
+        <f t="shared" ref="L17:L24" si="1">ABS(F3-F12)</f>
         <v>0.01</v>
       </c>
       <c r="M17">
-        <f>ABS(D3-D12)</f>
+        <f t="shared" ref="M17:M24" si="2">ABS(D3-D12)</f>
         <v>0.1</v>
       </c>
     </row>
@@ -10895,23 +11059,23 @@
         <v>0.77</v>
       </c>
       <c r="I18">
-        <f t="shared" ref="I18:I24" si="1">ABS(B4-B13)</f>
+        <f t="shared" ref="I18:I24" si="3">ABS(B4-B13)</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="J18">
-        <f>ABS(C4-C13)</f>
+        <f t="shared" ref="J18:J24" si="4">ABS(C4-C13)</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="K18">
-        <f>ABS(E4-E13)</f>
+        <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
       <c r="L18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16</v>
       </c>
       <c r="M18">
-        <f>ABS(D4-D13)</f>
+        <f t="shared" si="2"/>
         <v>0.26</v>
       </c>
     </row>
@@ -10935,23 +11099,23 @@
         <v>0.61</v>
       </c>
       <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="J19">
-        <f>ABS(C5-C14)</f>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="K19">
-        <f>ABS(E5-E14)</f>
-        <v>0.10999999999999999</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
       <c r="M19">
-        <f>ABS(D5-D14)</f>
+        <f t="shared" si="2"/>
         <v>7.999999999999996E-2</v>
       </c>
     </row>
@@ -10960,23 +11124,23 @@
         <v>2</v>
       </c>
       <c r="I20">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+      <c r="L20">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J20">
-        <f>ABS(C6-C15)</f>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="K20">
-        <f>ABS(E6-E15)</f>
-        <v>5.9999999999999942E-2</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="M20">
-        <f>ABS(D6-D15)</f>
+        <f t="shared" si="2"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -11000,23 +11164,23 @@
         <v>0</v>
       </c>
       <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="J21">
-        <f>ABS(C7-C16)</f>
-        <v>2.9999999999999916E-2</v>
-      </c>
-      <c r="K21">
-        <f>ABS(E7-E16)</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="M21">
-        <f>ABS(D7-D16)</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -11040,23 +11204,23 @@
         <v>0.01</v>
       </c>
       <c r="I22">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J22">
-        <f>ABS(C8-C17)</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="K22">
-        <f>ABS(E8-E17)</f>
-        <v>1.9999999999999907E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M22">
-        <f>ABS(D8-D17)</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -11080,23 +11244,23 @@
         <v>0.24</v>
       </c>
       <c r="I23">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J23">
-        <f>ABS(C9-C18)</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>ABS(E9-E18)</f>
-        <v>2.9999999999999916E-2</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="M23">
-        <f>ABS(D9-D18)</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -11120,23 +11284,23 @@
         <v>0.49</v>
       </c>
       <c r="I24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J24">
-        <f>ABS(C10-C19)</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>ABS(E10-E19)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
       <c r="M24">
-        <f>ABS(D10-D19)</f>
+        <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -11160,7 +11324,7 @@
         <v>0.72</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -11191,15 +11355,15 @@
         <v>0.01</v>
       </c>
       <c r="K26">
-        <f>ABS(E3-E21)</f>
+        <f t="shared" ref="K26:K33" si="5">ABS(E3-E21)</f>
         <v>0.01</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L33" si="2">ABS(F3-F21)</f>
+        <f t="shared" ref="L26:L33" si="6">ABS(F3-F21)</f>
         <v>0</v>
       </c>
       <c r="M26">
-        <f>ABS(D3-D21)</f>
+        <f t="shared" ref="M26:M33" si="7">ABS(D3-D21)</f>
         <v>0.03</v>
       </c>
     </row>
@@ -11223,23 +11387,23 @@
         <v>0.61</v>
       </c>
       <c r="I27">
-        <f t="shared" ref="I27:I33" si="3">ABS(B4-B22)</f>
+        <f t="shared" ref="I27:I33" si="8">ABS(B4-B22)</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="J27">
-        <f>ABS(C4-C22)</f>
+        <f t="shared" ref="J27:J33" si="9">ABS(C4-C22)</f>
         <v>0.19</v>
       </c>
       <c r="K27">
-        <f>ABS(E4-E22)</f>
+        <f t="shared" si="5"/>
         <v>0.19</v>
       </c>
       <c r="L27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="M27">
-        <f>ABS(D4-D22)</f>
+        <f t="shared" si="7"/>
         <v>0.27</v>
       </c>
     </row>
@@ -11263,23 +11427,23 @@
         <v>0.33</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="J28">
-        <f>ABS(C5-C23)</f>
+        <f t="shared" si="9"/>
         <v>8.9999999999999969E-2</v>
       </c>
       <c r="K28">
-        <f>ABS(E5-E23)</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.16999999999999998</v>
       </c>
       <c r="M28">
-        <f>ABS(D5-D23)</f>
+        <f t="shared" si="7"/>
         <v>6.9999999999999951E-2</v>
       </c>
     </row>
@@ -11288,23 +11452,23 @@
         <v>3</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="J29">
-        <f>ABS(C6-C24)</f>
+        <f t="shared" si="9"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="K29">
-        <f>ABS(E6-E24)</f>
+        <f t="shared" si="5"/>
         <v>0.10999999999999999</v>
       </c>
       <c r="L29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.18000000000000005</v>
       </c>
       <c r="M29">
-        <f>ABS(D6-D24)</f>
+        <f t="shared" si="7"/>
         <v>7.999999999999996E-2</v>
       </c>
     </row>
@@ -11328,23 +11492,23 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="J30">
-        <f>ABS(C7-C25)</f>
+        <f t="shared" si="9"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="K30">
-        <f>ABS(E7-E25)</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="L30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="M30">
-        <f>ABS(D7-D25)</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -11368,23 +11532,23 @@
         <v>0.05</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.9999999999999907E-2</v>
       </c>
       <c r="J31">
-        <f>ABS(C8-C26)</f>
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="K31">
-        <f>ABS(E8-E26)</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4.9999999999999933E-2</v>
       </c>
       <c r="M31">
-        <f>ABS(D8-D26)</f>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -11408,23 +11572,23 @@
         <v>0.1</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="J32">
-        <f>ABS(C9-C27)</f>
+        <f t="shared" si="9"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="K32">
-        <f>ABS(E9-E27)</f>
+        <f t="shared" si="5"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="L32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="M32">
-        <f>ABS(D9-D27)</f>
+        <f t="shared" si="7"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -11448,23 +11612,23 @@
         <v>0.09</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="J33">
-        <f>ABS(C10-C28)</f>
+        <f t="shared" si="9"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="K33">
-        <f>ABS(E10-E28)</f>
+        <f t="shared" si="5"/>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="L33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.14999999999999997</v>
       </c>
       <c r="M33">
-        <f>ABS(D10-D28)</f>
+        <f t="shared" si="7"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -11550,7 +11714,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -11838,7 +12002,7 @@
         <v>0.89</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -11861,7 +12025,7 @@
         <v>0.93</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -12189,7 +12353,7 @@
         <v>0.74</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -12579,7 +12743,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -12867,7 +13031,7 @@
         <v>0.95</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -12890,7 +13054,7 @@
         <v>0.96</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -13218,7 +13382,7 @@
         <v>0.74</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -13608,7 +13772,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -13623,7 +13787,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -13895,7 +14059,7 @@
         <v>0.93</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -13918,7 +14082,7 @@
         <v>0.93</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -14246,7 +14410,7 @@
         <v>0.82</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -14636,7 +14800,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -14651,7 +14815,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="A33:F33"/>
+      <selection activeCell="F1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14923,7 +15087,7 @@
         <v>0.94</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -14946,7 +15110,7 @@
         <v>0.93</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -15274,7 +15438,7 @@
         <v>0.78</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -15664,27 +15828,28 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F8" sqref="A8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -15701,205 +15866,205 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.88</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.89</v>
+      </c>
+      <c r="E3">
+        <v>0.87</v>
+      </c>
+      <c r="F3">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.89</v>
-      </c>
-      <c r="C3">
-        <v>0.94</v>
-      </c>
-      <c r="D3">
-        <v>0.91</v>
-      </c>
-      <c r="E3">
-        <v>0.88</v>
-      </c>
-      <c r="F3">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
       </c>
       <c r="B4">
         <v>0.89</v>
       </c>
       <c r="C4">
+        <v>0.93</v>
+      </c>
+      <c r="D4">
+        <v>0.91</v>
+      </c>
+      <c r="E4">
+        <v>0.87</v>
+      </c>
+      <c r="F4">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.89</v>
+      </c>
+      <c r="C5">
         <v>0.95</v>
-      </c>
-      <c r="D4">
-        <v>0.92</v>
-      </c>
-      <c r="E4">
-        <v>0.88</v>
-      </c>
-      <c r="F4">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.92</v>
-      </c>
-      <c r="C5">
-        <v>0.91</v>
       </c>
       <c r="D5">
         <v>0.92</v>
       </c>
       <c r="E5">
+        <v>0.87</v>
+      </c>
+      <c r="F5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0.92</v>
+      </c>
+      <c r="C6">
+        <v>0.91</v>
+      </c>
+      <c r="D6">
+        <v>0.91</v>
+      </c>
+      <c r="E6">
         <v>0.9</v>
       </c>
-      <c r="F5">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>0.88</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>0.96</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.92</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0.87</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>0.91</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>0.93</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <v>0.92</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="2">
         <v>0.9</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="F8" s="2">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>0.91</v>
-      </c>
-      <c r="C9">
-        <v>0.96</v>
-      </c>
-      <c r="D9">
-        <v>0.93</v>
-      </c>
-      <c r="E9">
-        <v>0.9</v>
-      </c>
-      <c r="F9">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.91</v>
       </c>
       <c r="C10">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="D10">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="E10">
         <v>0.9</v>
       </c>
       <c r="F10">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="C11">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D11">
         <v>0.93</v>
       </c>
       <c r="E11">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F11">
         <v>0.91</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="C12">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D12">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="E12">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F12">
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
+        <v>0.94</v>
+      </c>
+      <c r="C13">
         <v>0.93</v>
-      </c>
-      <c r="C13">
-        <v>0.94</v>
       </c>
       <c r="D13">
         <v>0.93</v>
@@ -15908,188 +16073,357 @@
         <v>0.92</v>
       </c>
       <c r="F13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14">
+        <v>0.97</v>
+      </c>
+      <c r="D14">
+        <v>0.94</v>
+      </c>
+      <c r="E14">
+        <v>0.91</v>
+      </c>
+      <c r="F14">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.94</v>
+      </c>
+      <c r="C15">
+        <v>0.94</v>
+      </c>
+      <c r="D15">
+        <v>0.94</v>
+      </c>
+      <c r="E15">
+        <v>0.93</v>
+      </c>
+      <c r="F15">
+        <v>0.93</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <f>B10-B3</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:N21" si="0">C10-C3</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>0.86</v>
+      </c>
+      <c r="C17">
+        <v>0.84</v>
+      </c>
+      <c r="D17">
+        <v>0.86</v>
+      </c>
+      <c r="E17">
+        <v>0.83</v>
+      </c>
+      <c r="F17">
+        <v>0.69</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J21" si="1">B11-B4</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>0.86</v>
       </c>
-      <c r="C15">
+      <c r="C18">
         <v>0.91</v>
       </c>
-      <c r="D15">
+      <c r="D18">
         <v>0.89</v>
       </c>
-      <c r="E15">
+      <c r="E18">
         <v>0.84</v>
       </c>
-      <c r="F15">
+      <c r="F18">
+        <v>0.78</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>0.86</v>
+      </c>
+      <c r="C19">
+        <v>0.92</v>
+      </c>
+      <c r="D19">
+        <v>0.9</v>
+      </c>
+      <c r="E19">
+        <v>0.84</v>
+      </c>
+      <c r="F19">
+        <v>0.81</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0.87</v>
+      </c>
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>0.86</v>
+      </c>
+      <c r="F20">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
         <v>0.85</v>
       </c>
-      <c r="C16">
-        <v>0.93</v>
-      </c>
-      <c r="D16">
+      <c r="C21">
+        <v>0.95</v>
+      </c>
+      <c r="D21">
+        <v>0.9</v>
+      </c>
+      <c r="E21">
+        <v>0.83</v>
+      </c>
+      <c r="F21">
+        <v>0.82</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>9.9999999999998979E-3</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999907E-2</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
         <v>0.89</v>
       </c>
-      <c r="E16">
-        <v>0.83</v>
-      </c>
-      <c r="F16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>0.89</v>
-      </c>
-      <c r="C17">
-        <v>0.87</v>
-      </c>
-      <c r="D17">
-        <v>0.89</v>
-      </c>
-      <c r="E17">
-        <v>0.85</v>
-      </c>
-      <c r="F17">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>0.85</v>
-      </c>
-      <c r="C18">
-        <v>0.94</v>
-      </c>
-      <c r="D18">
+      <c r="C22">
+        <v>0.91</v>
+      </c>
+      <c r="D22">
         <v>0.9</v>
       </c>
-      <c r="E18">
-        <v>0.83</v>
-      </c>
-      <c r="F18">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19">
+      <c r="E22">
         <v>0.88</v>
       </c>
-      <c r="C19">
-        <v>0.9</v>
-      </c>
-      <c r="D19">
-        <v>0.89</v>
-      </c>
-      <c r="E19">
-        <v>0.87</v>
-      </c>
-      <c r="F19">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F22">
+        <v>0.86</v>
+      </c>
+      <c r="I22" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22">
+        <f>B3-B17</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:N27" si="2">C3-C17</f>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>0.12000000000000011</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>0.01</v>
-      </c>
-      <c r="C21">
-        <v>0.01</v>
-      </c>
-      <c r="D21">
-        <v>0.01</v>
-      </c>
-      <c r="E21">
+      <c r="J23">
+        <f t="shared" ref="J23:J27" si="3">B4-B18</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
         <v>0.02</v>
       </c>
-      <c r="F21">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.01</v>
-      </c>
-      <c r="C22">
-        <v>0.01</v>
-      </c>
-      <c r="D22">
-        <v>0.01</v>
-      </c>
-      <c r="E22">
+      <c r="C24">
         <v>0.02</v>
-      </c>
-      <c r="F22">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23">
-        <v>0.01</v>
-      </c>
-      <c r="C23">
-        <v>0.02</v>
-      </c>
-      <c r="D23">
-        <v>0.01</v>
-      </c>
-      <c r="E23">
-        <v>0.02</v>
-      </c>
-      <c r="F23">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24">
-        <v>0.01</v>
-      </c>
-      <c r="C24">
-        <v>0.01</v>
       </c>
       <c r="D24">
         <v>0.01</v>
@@ -16098,12 +16432,32 @@
         <v>0.02</v>
       </c>
       <c r="F24">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.04</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999916E-2</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>5.9999999999999942E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.01</v>
@@ -16115,238 +16469,155 @@
         <v>0.01</v>
       </c>
       <c r="E25">
+        <v>0.02</v>
+      </c>
+      <c r="F25">
+        <v>0.03</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>4.9999999999999933E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>0.02</v>
+      </c>
+      <c r="C26">
         <v>0.01</v>
       </c>
-      <c r="F25">
+      <c r="D26">
+        <v>0.01</v>
+      </c>
+      <c r="E26">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28">
-        <f>B9-B3</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:F28" si="0">C9-C3</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <f>B3-B16</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:F29" si="1">C3-C16</f>
-        <v>9.9999999999998979E-3</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999942E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <f>B10-B4</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="C30">
-        <f t="shared" ref="C30:F30" si="2">C10-C4</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="D30">
+      <c r="F26">
+        <v>0.03</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="2"/>
-        <v>1.9999999999999907E-2</v>
-      </c>
-      <c r="E30">
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="2"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="F30">
+      <c r="M26">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <f>B4-B16</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="C31">
-        <f t="shared" ref="C31:F31" si="3">C4-C16</f>
-        <v>1.9999999999999907E-2</v>
-      </c>
-      <c r="D31">
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>0.01</v>
+      </c>
+      <c r="C27">
+        <v>0.01</v>
+      </c>
+      <c r="D27">
+        <v>0.01</v>
+      </c>
+      <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="F27">
+        <v>0.03</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="3"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="3"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <f>B11-B5</f>
-        <v>1.9999999999999907E-2</v>
-      </c>
-      <c r="C32">
-        <f t="shared" ref="C32:F32" si="4">C11-C5</f>
-        <v>2.9999999999999916E-2</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="4"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="4"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <f>B5-B17</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="C33">
-        <f t="shared" ref="C33:F33" si="5">C5-C17</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="5"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="5"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="5"/>
-        <v>9.9999999999999978E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <f>B12-B6</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:F34" si="6">C12-C6</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="6"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="6"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="6"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <f>B6-B18</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="C35">
-        <f t="shared" ref="C35:F35" si="7">C6-C18</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="7"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="F35">
-        <f t="shared" si="7"/>
-        <v>7.999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <f>B13-B7</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="C36">
-        <f t="shared" ref="C36:F36" si="8">C13-C7</f>
-        <v>9.9999999999998979E-3</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="8"/>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="8"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="F36">
-        <f t="shared" si="8"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <f>B7-B19</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="C37">
-        <f t="shared" ref="C37:F37" si="9">C7-C19</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="9"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="9"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="F37">
-        <f t="shared" si="9"/>
-        <v>6.0000000000000053E-2</v>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>0.02</v>
+      </c>
+      <c r="C28">
+        <v>0.01</v>
+      </c>
+      <c r="D28">
+        <v>0.01</v>
+      </c>
+      <c r="E28">
+        <v>0.02</v>
+      </c>
+      <c r="F28">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <v>0.01</v>
+      </c>
+      <c r="D29">
+        <v>0.01</v>
+      </c>
+      <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="F29">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
